--- a/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\技能相关表\j技能显示表-复合\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A705521-7754-4DC9-83FA-9EB7DB0DEA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="202"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,19 +18,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$136</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,12 +39,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 技能概括，战斗中选择技能时显示</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,12 +53,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗=等级*系数a1+系数b1</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -61,13 +67,13 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 Administrator:
 消耗=等级*系数a1+系数b1</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +82,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗1=等级*系数a1+系数b1</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -90,13 +96,13 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 Administrator:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -105,12 +111,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -119,12 +125,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +139,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">选择目标类型 user:
+          <t>选择目标类型 user:
 480：选取敌人
 4127：选取自己方
 1：自己
@@ -156,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -165,12 +171,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 未开启时使用</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +201,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 未开启时使用</t>
         </r>
       </text>
@@ -205,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="527">
   <si>
     <t>技能id</t>
   </si>
@@ -2111,14 +2117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2192,131 +2192,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2326,27 +2204,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF00FF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2373,7 +2259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,180 +2283,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2638,635 +2356,417 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="245">
+  <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3275,10 +2775,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3287,10 +2787,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3299,136 +2799,136 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3472,43 +2972,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3523,10 +3023,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3534,13 +3034,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="54" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3549,281 +3049,245 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="54" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="241" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="196" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="245">
+  <cellStyles count="200">
+    <cellStyle name="20% - 着色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="差 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="差 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="差 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="差 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="差 2 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="差 2 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="差 2 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="差 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="差 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="差 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="差 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="差 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="差 8" xfId="22" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="常规 3 27" xfId="2"/>
-    <cellStyle name="差 2 4" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="常规 3 14" xfId="7"/>
-    <cellStyle name="差 2 6" xfId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="9" builtinId="6"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
-    <cellStyle name="差" xfId="13" builtinId="27"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="常规 4 13" xfId="15"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8"/>
-    <cellStyle name="百分比" xfId="17" builtinId="5"/>
-    <cellStyle name="差 2 7" xfId="18"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="好 14" xfId="21"/>
-    <cellStyle name="常规 6 13" xfId="22"/>
-    <cellStyle name="常规 6" xfId="23"/>
-    <cellStyle name="差 4" xfId="24"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 7 31" xfId="26"/>
-    <cellStyle name="常规 7 26" xfId="27"/>
-    <cellStyle name="常规 6 5" xfId="28"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="29" builtinId="36"/>
-    <cellStyle name="常规 4 12" xfId="30"/>
-    <cellStyle name="标题 4" xfId="31" builtinId="19"/>
-    <cellStyle name="标题" xfId="32" builtinId="15"/>
-    <cellStyle name="常规 10 11" xfId="33"/>
-    <cellStyle name="常规 12" xfId="34"/>
-    <cellStyle name="解释性文本" xfId="35" builtinId="53"/>
-    <cellStyle name="差 6" xfId="36"/>
-    <cellStyle name="标题 1" xfId="37" builtinId="16"/>
-    <cellStyle name="差 7" xfId="38"/>
-    <cellStyle name="标题 2" xfId="39" builtinId="17"/>
-    <cellStyle name="常规 4 11" xfId="40"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="41" builtinId="32"/>
-    <cellStyle name="差 8" xfId="42"/>
-    <cellStyle name="标题 3" xfId="43" builtinId="18"/>
-    <cellStyle name="常规 4 14" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="45" builtinId="44"/>
-    <cellStyle name="输出" xfId="46" builtinId="21"/>
-    <cellStyle name="常规 26" xfId="47"/>
-    <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="49" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="50" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="51" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="汇总" xfId="53" builtinId="25"/>
-    <cellStyle name="好" xfId="54" builtinId="26"/>
-    <cellStyle name="适中" xfId="55" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="56" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="57" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="58" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="59" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="60" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="61" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="62" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="63" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="64" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="65" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="66" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="67" builtinId="47"/>
-    <cellStyle name="常规 4 15" xfId="68"/>
-    <cellStyle name="常规 4 20" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="70" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="71" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="72" builtinId="51"/>
-    <cellStyle name="常规 4 16" xfId="73"/>
-    <cellStyle name="常规 4 21" xfId="74"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="75" builtinId="52"/>
-    <cellStyle name="常规 10" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="差 2 2" xfId="78"/>
-    <cellStyle name="差 2 3" xfId="79"/>
-    <cellStyle name="差 2 5" xfId="80"/>
-    <cellStyle name="差 3" xfId="81"/>
-    <cellStyle name="差 5" xfId="82"/>
-    <cellStyle name="常规 10 10" xfId="83"/>
-    <cellStyle name="常规 10 12" xfId="84"/>
-    <cellStyle name="常规 10 13" xfId="85"/>
-    <cellStyle name="常规 14" xfId="86"/>
-    <cellStyle name="常规 10 14" xfId="87"/>
-    <cellStyle name="常规 15" xfId="88"/>
-    <cellStyle name="常规 20" xfId="89"/>
-    <cellStyle name="常规 10 15" xfId="90"/>
-    <cellStyle name="常规 10 20" xfId="91"/>
-    <cellStyle name="常规 16" xfId="92"/>
-    <cellStyle name="常规 21" xfId="93"/>
-    <cellStyle name="常规 10 16" xfId="94"/>
-    <cellStyle name="常规 10 21" xfId="95"/>
-    <cellStyle name="常规 22" xfId="96"/>
-    <cellStyle name="常规 10 17" xfId="97"/>
-    <cellStyle name="常规 10 22" xfId="98"/>
-    <cellStyle name="常规 18" xfId="99"/>
-    <cellStyle name="常规 23" xfId="100"/>
-    <cellStyle name="常规 10 18" xfId="101"/>
-    <cellStyle name="常规 19" xfId="102"/>
-    <cellStyle name="常规 24" xfId="103"/>
-    <cellStyle name="常规 10 19" xfId="104"/>
-    <cellStyle name="常规 25" xfId="105"/>
-    <cellStyle name="常规 10 2" xfId="106"/>
-    <cellStyle name="常规 10 3" xfId="107"/>
-    <cellStyle name="常规 10 4" xfId="108"/>
-    <cellStyle name="常规 10 5" xfId="109"/>
-    <cellStyle name="常规 10 6" xfId="110"/>
-    <cellStyle name="常规 10 7" xfId="111"/>
-    <cellStyle name="常规 10 8" xfId="112"/>
-    <cellStyle name="常规 10 9" xfId="113"/>
-    <cellStyle name="常规 2 2" xfId="114"/>
-    <cellStyle name="常规 2 3" xfId="115"/>
-    <cellStyle name="常规 2 4" xfId="116"/>
-    <cellStyle name="常规 2 5" xfId="117"/>
-    <cellStyle name="常规 2 6" xfId="118"/>
-    <cellStyle name="常规 2 7" xfId="119"/>
-    <cellStyle name="常规 2 8" xfId="120"/>
-    <cellStyle name="常规 28" xfId="121"/>
-    <cellStyle name="常规 33" xfId="122"/>
-    <cellStyle name="常规 29" xfId="123"/>
-    <cellStyle name="常规 34" xfId="124"/>
-    <cellStyle name="常规 3 10" xfId="125"/>
-    <cellStyle name="常规 6 6" xfId="126"/>
-    <cellStyle name="常规 7 27" xfId="127"/>
-    <cellStyle name="常规 7 32" xfId="128"/>
-    <cellStyle name="常规 3 11" xfId="129"/>
-    <cellStyle name="常规 6 7" xfId="130"/>
-    <cellStyle name="常规 7 28" xfId="131"/>
-    <cellStyle name="常规 7 33" xfId="132"/>
-    <cellStyle name="常规 3 12" xfId="133"/>
-    <cellStyle name="常规 6 8" xfId="134"/>
-    <cellStyle name="常规 7 29" xfId="135"/>
-    <cellStyle name="常规 3 13" xfId="136"/>
-    <cellStyle name="常规 6 9" xfId="137"/>
-    <cellStyle name="常规 3 15" xfId="138"/>
-    <cellStyle name="常规 3 20" xfId="139"/>
-    <cellStyle name="常规 3 16" xfId="140"/>
-    <cellStyle name="常规 3 21" xfId="141"/>
-    <cellStyle name="常规 3 17" xfId="142"/>
-    <cellStyle name="常规 3 22" xfId="143"/>
-    <cellStyle name="常规 3 18" xfId="144"/>
-    <cellStyle name="常规 3 23" xfId="145"/>
-    <cellStyle name="常规 3 19" xfId="146"/>
-    <cellStyle name="常规 3 24" xfId="147"/>
-    <cellStyle name="常规 3 2" xfId="148"/>
-    <cellStyle name="常规 3 25" xfId="149"/>
-    <cellStyle name="常规 3 26" xfId="150"/>
-    <cellStyle name="常规 3 3" xfId="151"/>
-    <cellStyle name="常规 3 4" xfId="152"/>
-    <cellStyle name="常规 3 5" xfId="153"/>
-    <cellStyle name="常规 3 6" xfId="154"/>
-    <cellStyle name="常规 3 7" xfId="155"/>
-    <cellStyle name="常规 3 8" xfId="156"/>
-    <cellStyle name="常规 3 9" xfId="157"/>
-    <cellStyle name="常规 35" xfId="158"/>
-    <cellStyle name="常规 36" xfId="159"/>
-    <cellStyle name="常规 4 10" xfId="160"/>
-    <cellStyle name="常规 4 17" xfId="161"/>
-    <cellStyle name="常规 4 22" xfId="162"/>
-    <cellStyle name="常规 4 18" xfId="163"/>
-    <cellStyle name="常规 4 19" xfId="164"/>
-    <cellStyle name="常规 4 2" xfId="165"/>
-    <cellStyle name="常规 4 3" xfId="166"/>
-    <cellStyle name="常规 4 4" xfId="167"/>
-    <cellStyle name="常规 4 5" xfId="168"/>
-    <cellStyle name="常规 4 6" xfId="169"/>
-    <cellStyle name="常规 4 7" xfId="170"/>
-    <cellStyle name="常规 4 8" xfId="171"/>
-    <cellStyle name="常规 4 9" xfId="172"/>
-    <cellStyle name="常规 5" xfId="173"/>
-    <cellStyle name="常规 6 12" xfId="174"/>
-    <cellStyle name="好 13" xfId="175"/>
-    <cellStyle name="常规 6 10" xfId="176"/>
-    <cellStyle name="好 11" xfId="177"/>
-    <cellStyle name="常规 6 11" xfId="178"/>
-    <cellStyle name="好 12" xfId="179"/>
-    <cellStyle name="常规 6 14" xfId="180"/>
-    <cellStyle name="常规 7" xfId="181"/>
-    <cellStyle name="好 15" xfId="182"/>
-    <cellStyle name="好 20" xfId="183"/>
-    <cellStyle name="常规 6 15" xfId="184"/>
-    <cellStyle name="常规 6 20" xfId="185"/>
-    <cellStyle name="好 16" xfId="186"/>
-    <cellStyle name="好 21" xfId="187"/>
-    <cellStyle name="常规 6 16" xfId="188"/>
-    <cellStyle name="常规 6 21" xfId="189"/>
-    <cellStyle name="好 17" xfId="190"/>
-    <cellStyle name="好 22" xfId="191"/>
-    <cellStyle name="常规 6 17" xfId="192"/>
-    <cellStyle name="常规 6 22" xfId="193"/>
-    <cellStyle name="好 18" xfId="194"/>
-    <cellStyle name="常规 6 18" xfId="195"/>
-    <cellStyle name="常规 6 23" xfId="196"/>
-    <cellStyle name="好 19" xfId="197"/>
-    <cellStyle name="常规 6 19" xfId="198"/>
-    <cellStyle name="常规 6 24" xfId="199"/>
-    <cellStyle name="常规 6 2" xfId="200"/>
-    <cellStyle name="常规 7 18" xfId="201"/>
-    <cellStyle name="常规 7 23" xfId="202"/>
-    <cellStyle name="常规 6 25" xfId="203"/>
-    <cellStyle name="常规 6 30" xfId="204"/>
-    <cellStyle name="常规 6 26" xfId="205"/>
-    <cellStyle name="常规 6 31" xfId="206"/>
-    <cellStyle name="常规 6 27" xfId="207"/>
-    <cellStyle name="常规 6 32" xfId="208"/>
-    <cellStyle name="常规 6 28" xfId="209"/>
-    <cellStyle name="常规 6 33" xfId="210"/>
-    <cellStyle name="常规 6 29" xfId="211"/>
-    <cellStyle name="常规 6 3" xfId="212"/>
-    <cellStyle name="常规 7 19" xfId="213"/>
-    <cellStyle name="常规 7 24" xfId="214"/>
-    <cellStyle name="常规 6 4" xfId="215"/>
-    <cellStyle name="常规 7 25" xfId="216"/>
-    <cellStyle name="常规 7 30" xfId="217"/>
-    <cellStyle name="常规 7 10" xfId="218"/>
-    <cellStyle name="常规 7 11" xfId="219"/>
-    <cellStyle name="常规 7 12" xfId="220"/>
-    <cellStyle name="常规 7 13" xfId="221"/>
-    <cellStyle name="常规 7 14" xfId="222"/>
-    <cellStyle name="常规 7 15" xfId="223"/>
-    <cellStyle name="常规 7 20" xfId="224"/>
-    <cellStyle name="常规 7 16" xfId="225"/>
-    <cellStyle name="常规 7 21" xfId="226"/>
-    <cellStyle name="常规 7 17" xfId="227"/>
-    <cellStyle name="常规 7 22" xfId="228"/>
-    <cellStyle name="常规 7 2" xfId="229"/>
-    <cellStyle name="常规 7 4" xfId="230"/>
-    <cellStyle name="常规 7 5" xfId="231"/>
-    <cellStyle name="常规 7 6" xfId="232"/>
-    <cellStyle name="常规 7 7" xfId="233"/>
-    <cellStyle name="常规 7 8" xfId="234"/>
-    <cellStyle name="常规 7 9" xfId="235"/>
-    <cellStyle name="好 10" xfId="236"/>
-    <cellStyle name="好 2" xfId="237"/>
-    <cellStyle name="好 3" xfId="238"/>
-    <cellStyle name="好 4" xfId="239"/>
-    <cellStyle name="好 5" xfId="240"/>
-    <cellStyle name="好 6" xfId="241"/>
-    <cellStyle name="好 7" xfId="242"/>
-    <cellStyle name="好 8" xfId="243"/>
-    <cellStyle name="好 9" xfId="244"/>
+    <cellStyle name="常规 10" xfId="31" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 10 10" xfId="38" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 10 11" xfId="17" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 10 12" xfId="39" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="常规 10 13" xfId="40" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 10 14" xfId="42" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 10 15" xfId="45" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 10 16" xfId="49" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 10 17" xfId="52" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 10 18" xfId="56" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 10 19" xfId="59" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 10 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="常规 10 20" xfId="46" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 10 21" xfId="50" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 10 22" xfId="53" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 10 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 10 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 10 5" xfId="64" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 10 6" xfId="65" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="常规 10 7" xfId="66" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="常规 10 8" xfId="67" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="常规 10 9" xfId="68" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="常规 12" xfId="18" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 14" xfId="41" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 15" xfId="43" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 16" xfId="47" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 18" xfId="54" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 19" xfId="57" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="常规 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="常规 2 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="常规 2 5" xfId="72" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="常规 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="常规 2 7" xfId="74" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="常规 2 8" xfId="75" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="常规 20" xfId="44" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 21" xfId="48" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 22" xfId="51" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 23" xfId="55" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 24" xfId="58" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 25" xfId="60" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 26" xfId="24" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 28" xfId="76" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="常规 29" xfId="78" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="常规 3 10" xfId="80" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="常规 3 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="常规 3 12" xfId="88" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="常规 3 13" xfId="91" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="常规 3 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3 15" xfId="93" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="常规 3 16" xfId="95" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="常规 3 17" xfId="97" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="常规 3 18" xfId="99" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="常规 3 19" xfId="101" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="常规 3 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="常规 3 20" xfId="94" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="常规 3 21" xfId="96" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="常规 3 22" xfId="98" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="常规 3 23" xfId="100" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="常规 3 24" xfId="102" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="常规 3 25" xfId="104" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="常规 3 26" xfId="105" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 3 27" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="常规 3 4" xfId="107" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="常规 3 5" xfId="108" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="常规 3 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="常规 3 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="常规 3 8" xfId="111" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="常规 3 9" xfId="112" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="常规 33" xfId="77" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="常规 34" xfId="79" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="常规 35" xfId="113" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="常规 36" xfId="114" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="常规 4 10" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 4 11" xfId="21" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="常规 4 12" xfId="16" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 4 13" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 4 14" xfId="23" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 4 15" xfId="27" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 4 16" xfId="29" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="常规 4 17" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 4 18" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="常规 4 19" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 4 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 4 20" xfId="28" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 4 21" xfId="30" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="常规 4 22" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="常规 4 3" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="常规 4 4" xfId="122" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="常规 4 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="常规 4 6" xfId="124" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="常规 4 7" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="常规 4 8" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="常规 4 9" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="常规 5" xfId="128" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="常规 6" xfId="11" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 6 10" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="常规 6 11" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="常规 6 12" xfId="129" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="常规 6 13" xfId="10" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 6 14" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="常规 6 15" xfId="139" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="常规 6 16" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="常规 6 17" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="常规 6 18" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="常规 6 19" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="常规 6 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="常规 6 20" xfId="140" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="常规 6 21" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="常规 6 22" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="常规 6 23" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="常规 6 24" xfId="154" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="常规 6 25" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="常规 6 26" xfId="160" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="常规 6 27" xfId="162" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="常规 6 28" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="常规 6 29" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="常规 6 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="常规 6 30" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="常规 6 31" xfId="161" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="常规 6 32" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="常规 6 33" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="常规 6 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="常规 6 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 6 6" xfId="81" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="常规 6 7" xfId="85" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="常规 6 8" xfId="89" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="常规 6 9" xfId="92" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="常规 7" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="常规 7 10" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="常规 7 11" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="常规 7 12" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="常规 7 13" xfId="176" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="常规 7 14" xfId="177" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="常规 7 15" xfId="178" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 7 16" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="常规 7 17" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="常规 7 18" xfId="156" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="常规 7 19" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="常规 7 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="常规 7 20" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="常规 7 21" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="常规 7 22" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规 7 23" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="常规 7 24" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="常规 7 25" xfId="171" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="常规 7 26" xfId="14" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 7 27" xfId="82" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="常规 7 28" xfId="86" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="常规 7 29" xfId="90" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="常规 7 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 7 30" xfId="172" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="常规 7 31" xfId="13" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 7 32" xfId="83" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="常规 7 33" xfId="87" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="常规 7 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="常规 7 5" xfId="186" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="常规 7 6" xfId="187" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="常规 7 7" xfId="188" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="常规 7 8" xfId="189" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="常规 7 9" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="好" xfId="26" builtinId="26"/>
+    <cellStyle name="好 10" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="好 11" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="好 12" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="好 13" xfId="130" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="好 14" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="好 15" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="好 16" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="好 17" xfId="145" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="好 18" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="好 19" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="好 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="好 20" xfId="138" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="好 21" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="好 22" xfId="146" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="好 3" xfId="193" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="好 4" xfId="194" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="好 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="好 6" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="好 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="好 8" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="好 9" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4155,46 +3619,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AP136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="88.7416666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="88.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="60" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6916666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.6583333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.4166666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.9166666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.2166666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.85833333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.3666666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.325" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.2833333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.725" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.375" style="2" customWidth="1"/>
     <col min="18" max="18" width="71.125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.9083333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="45.4083333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="28.4666666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="25.6916666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25.825" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="45.375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="25.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="25.875" style="2" customWidth="1"/>
     <col min="24" max="24" width="28.75" style="2" customWidth="1"/>
     <col min="25" max="25" width="67.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="69.1666666666667" style="4" customWidth="1"/>
+    <col min="26" max="26" width="69.125" style="4" customWidth="1"/>
     <col min="27" max="27" width="44.25" style="3" customWidth="1"/>
     <col min="28" max="28" width="104.75" style="3" customWidth="1"/>
     <col min="29" max="29" width="39.625" style="3" customWidth="1"/>
@@ -4203,7 +3665,7 @@
     <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="163.5" customHeight="1" spans="1:42">
+    <row r="1" spans="1:42" ht="163.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4329,7 +3791,7 @@
       </c>
       <c r="AP1" s="37"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:42">
+    <row r="2" spans="1:42" s="1" customFormat="1">
       <c r="A2" s="6">
         <v>110000</v>
       </c>
@@ -4449,7 +3911,7 @@
       </c>
       <c r="AP2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:42">
+    <row r="3" spans="1:42" s="1" customFormat="1">
       <c r="A3" s="6">
         <v>110001</v>
       </c>
@@ -4569,7 +4031,7 @@
       </c>
       <c r="AP3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:42">
+    <row r="4" spans="1:42" s="1" customFormat="1">
       <c r="A4" s="6">
         <v>110002</v>
       </c>
@@ -4689,7 +4151,7 @@
       </c>
       <c r="AP4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:42">
+    <row r="5" spans="1:42" s="1" customFormat="1">
       <c r="A5" s="6">
         <v>110003</v>
       </c>
@@ -4809,7 +4271,7 @@
       </c>
       <c r="AP5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:42">
+    <row r="6" spans="1:42" s="1" customFormat="1">
       <c r="A6" s="6">
         <v>110004</v>
       </c>
@@ -4929,7 +4391,7 @@
       </c>
       <c r="AP6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:42">
+    <row r="7" spans="1:42" s="1" customFormat="1">
       <c r="A7" s="6">
         <v>110005</v>
       </c>
@@ -5049,7 +4511,7 @@
       </c>
       <c r="AP7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:42">
+    <row r="8" spans="1:42" s="1" customFormat="1">
       <c r="A8" s="6">
         <v>110006</v>
       </c>
@@ -5069,7 +4531,7 @@
         <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
@@ -5169,7 +4631,7 @@
       </c>
       <c r="AP8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:42">
+    <row r="9" spans="1:42" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>110007</v>
       </c>
@@ -5287,7 +4749,7 @@
       </c>
       <c r="AP9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:42">
+    <row r="10" spans="1:42" s="1" customFormat="1">
       <c r="A10" s="12">
         <v>120000</v>
       </c>
@@ -5407,7 +4869,7 @@
       </c>
       <c r="AP10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:42">
+    <row r="11" spans="1:42" s="1" customFormat="1">
       <c r="A11" s="12">
         <v>120001</v>
       </c>
@@ -5527,7 +4989,7 @@
       </c>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="12" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A12" s="12">
         <v>120002</v>
       </c>
@@ -5647,7 +5109,7 @@
       </c>
       <c r="AP12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="13" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A13" s="12">
         <v>120003</v>
       </c>
@@ -5767,7 +5229,7 @@
       </c>
       <c r="AP13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="14" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A14" s="12">
         <v>120004</v>
       </c>
@@ -5887,7 +5349,7 @@
       </c>
       <c r="AP14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="15" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A15" s="12">
         <v>120005</v>
       </c>
@@ -6007,7 +5469,7 @@
       </c>
       <c r="AP15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:42">
+    <row r="16" spans="1:42" s="1" customFormat="1">
       <c r="A16" s="12">
         <v>120006</v>
       </c>
@@ -6027,7 +5489,7 @@
         <v>-1</v>
       </c>
       <c r="G16" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H16" s="1">
         <v>6</v>
@@ -6127,7 +5589,7 @@
       </c>
       <c r="AP16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="17" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A17" s="12">
         <v>120007</v>
       </c>
@@ -6247,7 +5709,7 @@
       </c>
       <c r="AP17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:42">
+    <row r="18" spans="1:42" s="1" customFormat="1">
       <c r="A18" s="6">
         <v>130000</v>
       </c>
@@ -6367,7 +5829,7 @@
       </c>
       <c r="AP18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:42">
+    <row r="19" spans="1:42" s="1" customFormat="1">
       <c r="A19" s="6">
         <v>130001</v>
       </c>
@@ -6487,7 +5949,7 @@
       </c>
       <c r="AP19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:42">
+    <row r="20" spans="1:42" s="1" customFormat="1">
       <c r="A20" s="6">
         <v>130002</v>
       </c>
@@ -6607,7 +6069,7 @@
       </c>
       <c r="AP20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:42">
+    <row r="21" spans="1:42" s="1" customFormat="1">
       <c r="A21" s="6">
         <v>130003</v>
       </c>
@@ -6727,7 +6189,7 @@
       </c>
       <c r="AP21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:42">
+    <row r="22" spans="1:42" s="1" customFormat="1">
       <c r="A22" s="6">
         <v>130004</v>
       </c>
@@ -6847,7 +6309,7 @@
       </c>
       <c r="AP22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:42">
+    <row r="23" spans="1:42" s="1" customFormat="1">
       <c r="A23" s="6">
         <v>130005</v>
       </c>
@@ -6967,7 +6429,7 @@
       </c>
       <c r="AP23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:42">
+    <row r="24" spans="1:42" s="1" customFormat="1">
       <c r="A24" s="6">
         <v>130006</v>
       </c>
@@ -6987,7 +6449,7 @@
         <v>-1</v>
       </c>
       <c r="G24" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H24" s="1">
         <v>6</v>
@@ -7087,7 +6549,7 @@
       </c>
       <c r="AP24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:42">
+    <row r="25" spans="1:42" s="1" customFormat="1">
       <c r="A25" s="6">
         <v>130007</v>
       </c>
@@ -7205,7 +6667,7 @@
       </c>
       <c r="AP25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="26" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A26" s="12">
         <v>140000</v>
       </c>
@@ -7325,7 +6787,7 @@
       </c>
       <c r="AP26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:42">
+    <row r="27" spans="1:42" s="1" customFormat="1">
       <c r="A27" s="12">
         <v>140001</v>
       </c>
@@ -7445,7 +6907,7 @@
       </c>
       <c r="AP27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="28" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A28" s="12">
         <v>140002</v>
       </c>
@@ -7565,7 +7027,7 @@
       </c>
       <c r="AP28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="29" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A29" s="12">
         <v>140003</v>
       </c>
@@ -7685,7 +7147,7 @@
       </c>
       <c r="AP29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="30" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A30" s="12">
         <v>140004</v>
       </c>
@@ -7805,7 +7267,7 @@
       </c>
       <c r="AP30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:42">
+    <row r="31" spans="1:42" s="1" customFormat="1">
       <c r="A31" s="12">
         <v>140005</v>
       </c>
@@ -7925,7 +7387,7 @@
       </c>
       <c r="AP31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:42">
+    <row r="32" spans="1:42" s="1" customFormat="1">
       <c r="A32" s="12">
         <v>140006</v>
       </c>
@@ -7945,7 +7407,7 @@
         <v>-1</v>
       </c>
       <c r="G32" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H32" s="1">
         <v>6</v>
@@ -8045,7 +7507,7 @@
       </c>
       <c r="AP32" s="3"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:42">
+    <row r="33" spans="1:42" s="1" customFormat="1">
       <c r="A33" s="12">
         <v>140007</v>
       </c>
@@ -8163,7 +7625,7 @@
       </c>
       <c r="AP33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:42">
+    <row r="34" spans="1:42" s="1" customFormat="1">
       <c r="A34" s="6">
         <v>150000</v>
       </c>
@@ -8283,7 +7745,7 @@
       </c>
       <c r="AP34" s="3"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:42">
+    <row r="35" spans="1:42" s="1" customFormat="1">
       <c r="A35" s="6">
         <v>150001</v>
       </c>
@@ -8403,7 +7865,7 @@
       </c>
       <c r="AP35" s="3"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:42">
+    <row r="36" spans="1:42" s="1" customFormat="1">
       <c r="A36" s="6">
         <v>150002</v>
       </c>
@@ -8523,7 +7985,7 @@
       </c>
       <c r="AP36" s="3"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="37" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A37" s="12">
         <v>150003</v>
       </c>
@@ -8643,7 +8105,7 @@
       </c>
       <c r="AP37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:42">
+    <row r="38" spans="1:42" s="1" customFormat="1">
       <c r="A38" s="6">
         <v>150004</v>
       </c>
@@ -8763,7 +8225,7 @@
       </c>
       <c r="AP38" s="3"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:42">
+    <row r="39" spans="1:42" s="1" customFormat="1">
       <c r="A39" s="12">
         <v>150005</v>
       </c>
@@ -8883,7 +8345,7 @@
       </c>
       <c r="AP39" s="3"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:42">
+    <row r="40" spans="1:42" s="1" customFormat="1">
       <c r="A40" s="6">
         <v>150006</v>
       </c>
@@ -8903,7 +8365,7 @@
         <v>-1</v>
       </c>
       <c r="G40" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H40" s="1">
         <v>6</v>
@@ -9003,7 +8465,7 @@
       </c>
       <c r="AP40" s="3"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:42">
+    <row r="41" spans="1:42" s="1" customFormat="1">
       <c r="A41" s="12">
         <v>150007</v>
       </c>
@@ -9121,7 +8583,7 @@
       </c>
       <c r="AP41" s="3"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:42">
+    <row r="42" spans="1:42" s="1" customFormat="1">
       <c r="A42" s="12">
         <v>160000</v>
       </c>
@@ -9241,7 +8703,7 @@
       </c>
       <c r="AP42" s="3"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:42">
+    <row r="43" spans="1:42" s="1" customFormat="1">
       <c r="A43" s="12">
         <v>160001</v>
       </c>
@@ -9361,7 +8823,7 @@
       </c>
       <c r="AP43" s="3"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:42">
+    <row r="44" spans="1:42" s="1" customFormat="1">
       <c r="A44" s="12">
         <v>160002</v>
       </c>
@@ -9481,7 +8943,7 @@
       </c>
       <c r="AP44" s="3"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:42">
+    <row r="45" spans="1:42" s="1" customFormat="1">
       <c r="A45" s="12">
         <v>160003</v>
       </c>
@@ -9601,7 +9063,7 @@
       </c>
       <c r="AP45" s="3"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:42">
+    <row r="46" spans="1:42" s="1" customFormat="1">
       <c r="A46" s="12">
         <v>160004</v>
       </c>
@@ -9721,7 +9183,7 @@
       </c>
       <c r="AP46" s="3"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:42">
+    <row r="47" spans="1:42" s="1" customFormat="1">
       <c r="A47" s="12">
         <v>160005</v>
       </c>
@@ -9841,7 +9303,7 @@
       </c>
       <c r="AP47" s="3"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:42">
+    <row r="48" spans="1:42" s="1" customFormat="1">
       <c r="A48" s="12">
         <v>160006</v>
       </c>
@@ -9861,7 +9323,7 @@
         <v>-1</v>
       </c>
       <c r="G48" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H48" s="1">
         <v>6</v>
@@ -9961,7 +9423,7 @@
       </c>
       <c r="AP48" s="3"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="27" spans="1:42">
+    <row r="49" spans="1:42" s="1" customFormat="1" ht="27">
       <c r="A49" s="12">
         <v>160007</v>
       </c>
@@ -10079,7 +9541,7 @@
       </c>
       <c r="AP49" s="3"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:42">
+    <row r="50" spans="1:42" s="1" customFormat="1">
       <c r="A50" s="12">
         <v>161000</v>
       </c>
@@ -10199,7 +9661,7 @@
       </c>
       <c r="AP50" s="3"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:42">
+    <row r="51" spans="1:42" s="1" customFormat="1">
       <c r="A51" s="12">
         <v>161001</v>
       </c>
@@ -10319,7 +9781,7 @@
       </c>
       <c r="AP51" s="3"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:42">
+    <row r="52" spans="1:42" s="1" customFormat="1">
       <c r="A52" s="12">
         <v>161002</v>
       </c>
@@ -10439,7 +9901,7 @@
       </c>
       <c r="AP52" s="3"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:42">
+    <row r="53" spans="1:42" s="1" customFormat="1">
       <c r="A53" s="12">
         <v>161003</v>
       </c>
@@ -10559,7 +10021,7 @@
       </c>
       <c r="AP53" s="3"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:42">
+    <row r="54" spans="1:42" s="1" customFormat="1">
       <c r="A54" s="12">
         <v>161004</v>
       </c>
@@ -10679,7 +10141,7 @@
       </c>
       <c r="AP54" s="3"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:42">
+    <row r="55" spans="1:42" s="1" customFormat="1">
       <c r="A55" s="12">
         <v>161005</v>
       </c>
@@ -10799,7 +10261,7 @@
       </c>
       <c r="AP55" s="3"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:42">
+    <row r="56" spans="1:42" s="1" customFormat="1">
       <c r="A56" s="12">
         <v>161006</v>
       </c>
@@ -10819,7 +10281,7 @@
         <v>-1</v>
       </c>
       <c r="G56" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H56" s="1">
         <v>6</v>
@@ -10919,7 +10381,7 @@
       </c>
       <c r="AP56" s="3"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:42">
+    <row r="57" spans="1:42" s="1" customFormat="1">
       <c r="A57" s="12">
         <v>161007</v>
       </c>
@@ -11037,7 +10499,7 @@
       </c>
       <c r="AP57" s="3"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:42">
+    <row r="58" spans="1:42" s="1" customFormat="1">
       <c r="A58" s="12">
         <v>162000</v>
       </c>
@@ -11157,7 +10619,7 @@
       </c>
       <c r="AP58" s="3"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:42">
+    <row r="59" spans="1:42" s="1" customFormat="1">
       <c r="A59" s="12">
         <v>162001</v>
       </c>
@@ -11277,7 +10739,7 @@
       </c>
       <c r="AP59" s="3"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="60" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A60" s="12">
         <v>162002</v>
       </c>
@@ -11397,7 +10859,7 @@
       </c>
       <c r="AP60" s="3"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="61" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A61" s="12">
         <v>162003</v>
       </c>
@@ -11517,7 +10979,7 @@
       </c>
       <c r="AP61" s="3"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="62" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A62" s="12">
         <v>162004</v>
       </c>
@@ -11637,7 +11099,7 @@
       </c>
       <c r="AP62" s="3"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="63" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A63" s="12">
         <v>162005</v>
       </c>
@@ -11757,7 +11219,7 @@
       </c>
       <c r="AP63" s="3"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:42">
+    <row r="64" spans="1:42" s="1" customFormat="1">
       <c r="A64" s="12">
         <v>162006</v>
       </c>
@@ -11777,7 +11239,7 @@
         <v>-1</v>
       </c>
       <c r="G64" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H64" s="1">
         <v>6</v>
@@ -11877,7 +11339,7 @@
       </c>
       <c r="AP64" s="3"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="27" spans="1:42">
+    <row r="65" spans="1:42" s="1" customFormat="1" ht="27">
       <c r="A65" s="12">
         <v>162007</v>
       </c>
@@ -11995,7 +11457,7 @@
       </c>
       <c r="AP65" s="3"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:42">
+    <row r="66" spans="1:42" s="1" customFormat="1">
       <c r="A66" s="12">
         <v>163000</v>
       </c>
@@ -12115,7 +11577,7 @@
       </c>
       <c r="AP66" s="3"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="67" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A67" s="12">
         <v>163001</v>
       </c>
@@ -12235,7 +11697,7 @@
       </c>
       <c r="AP67" s="3"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="68" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A68" s="12">
         <v>163002</v>
       </c>
@@ -12355,7 +11817,7 @@
       </c>
       <c r="AP68" s="3"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="69" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A69" s="12">
         <v>163003</v>
       </c>
@@ -12475,7 +11937,7 @@
       </c>
       <c r="AP69" s="3"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="70" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A70" s="12">
         <v>163004</v>
       </c>
@@ -12595,7 +12057,7 @@
       </c>
       <c r="AP70" s="3"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="71" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A71" s="12">
         <v>163005</v>
       </c>
@@ -12715,7 +12177,7 @@
       </c>
       <c r="AP71" s="3"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:42">
+    <row r="72" spans="1:42" s="1" customFormat="1">
       <c r="A72" s="12">
         <v>163006</v>
       </c>
@@ -12735,7 +12197,7 @@
         <v>-1</v>
       </c>
       <c r="G72" s="1">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H72" s="1">
         <v>6</v>
@@ -12835,7 +12297,7 @@
       </c>
       <c r="AP72" s="3"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="73" spans="1:42" s="1" customFormat="1" ht="17.25">
       <c r="A73" s="12">
         <v>163007</v>
       </c>
@@ -12955,7 +12417,7 @@
       </c>
       <c r="AP73" s="3"/>
     </row>
-    <row r="74" customFormat="1" spans="1:41">
+    <row r="74" spans="1:42" customFormat="1">
       <c r="A74" s="3">
         <v>164000</v>
       </c>
@@ -13074,7 +12536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" customFormat="1" spans="1:41">
+    <row r="75" spans="1:42" customFormat="1">
       <c r="A75" s="3">
         <v>164001</v>
       </c>
@@ -13193,7 +12655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="1:41">
+    <row r="76" spans="1:42" customFormat="1">
       <c r="A76" s="3">
         <v>164002</v>
       </c>
@@ -13312,7 +12774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:41">
+    <row r="77" spans="1:42" customFormat="1">
       <c r="A77" s="3">
         <v>164003</v>
       </c>
@@ -13431,7 +12893,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:41">
+    <row r="78" spans="1:42" customFormat="1">
       <c r="A78" s="3">
         <v>164004</v>
       </c>
@@ -13550,7 +13012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:41">
+    <row r="79" spans="1:42" customFormat="1">
       <c r="A79" s="3">
         <v>164005</v>
       </c>
@@ -13669,7 +13131,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:41">
+    <row r="80" spans="1:42" customFormat="1">
       <c r="A80" s="3">
         <v>164006</v>
       </c>
@@ -13689,7 +13151,7 @@
         <v>-1</v>
       </c>
       <c r="G80" s="2">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H80" s="2">
         <v>6</v>
@@ -13788,7 +13250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:41">
+    <row r="81" spans="1:41" customFormat="1">
       <c r="A81" s="3">
         <v>164007</v>
       </c>
@@ -13907,7 +13369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="1:42">
+    <row r="82" spans="1:41">
       <c r="A82" s="3">
         <v>165000</v>
       </c>
@@ -14025,9 +13487,8 @@
       <c r="AO82" s="3">
         <v>200</v>
       </c>
-      <c r="AP82" s="3"/>
     </row>
-    <row r="83" s="2" customFormat="1" spans="1:42">
+    <row r="83" spans="1:41">
       <c r="A83" s="3">
         <v>165001</v>
       </c>
@@ -14145,9 +13606,8 @@
       <c r="AO83" s="3">
         <v>200</v>
       </c>
-      <c r="AP83" s="3"/>
     </row>
-    <row r="84" s="2" customFormat="1" spans="1:42">
+    <row r="84" spans="1:41">
       <c r="A84" s="3">
         <v>165002</v>
       </c>
@@ -14265,9 +13725,8 @@
       <c r="AO84" s="3">
         <v>200</v>
       </c>
-      <c r="AP84" s="3"/>
     </row>
-    <row r="85" s="2" customFormat="1" spans="1:42">
+    <row r="85" spans="1:41">
       <c r="A85" s="3">
         <v>165003</v>
       </c>
@@ -14385,9 +13844,8 @@
       <c r="AO85" s="3">
         <v>200</v>
       </c>
-      <c r="AP85" s="3"/>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:42">
+    <row r="86" spans="1:41">
       <c r="A86" s="3">
         <v>165004</v>
       </c>
@@ -14505,9 +13963,8 @@
       <c r="AO86" s="3">
         <v>200</v>
       </c>
-      <c r="AP86" s="3"/>
     </row>
-    <row r="87" s="2" customFormat="1" spans="1:42">
+    <row r="87" spans="1:41">
       <c r="A87" s="3">
         <v>165005</v>
       </c>
@@ -14625,9 +14082,8 @@
       <c r="AO87" s="3">
         <v>200</v>
       </c>
-      <c r="AP87" s="3"/>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:42">
+    <row r="88" spans="1:41">
       <c r="A88" s="3">
         <v>165006</v>
       </c>
@@ -14647,7 +14103,7 @@
         <v>-1</v>
       </c>
       <c r="G88" s="2">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H88" s="2">
         <v>6</v>
@@ -14724,8 +14180,6 @@
       <c r="AH88" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="AI88" s="3"/>
-      <c r="AJ88" s="3"/>
       <c r="AK88" s="3">
         <v>200</v>
       </c>
@@ -14741,9 +14195,8 @@
       <c r="AO88" s="3">
         <v>200</v>
       </c>
-      <c r="AP88" s="3"/>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:42">
+    <row r="89" spans="1:41">
       <c r="A89" s="3">
         <v>165007</v>
       </c>
@@ -14861,9 +14314,8 @@
       <c r="AO89" s="3">
         <v>7</v>
       </c>
-      <c r="AP89" s="3"/>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:42">
+    <row r="90" spans="1:41">
       <c r="A90" s="3">
         <v>166000</v>
       </c>
@@ -14981,9 +14433,8 @@
       <c r="AO90" s="3">
         <v>200</v>
       </c>
-      <c r="AP90" s="3"/>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:42">
+    <row r="91" spans="1:41">
       <c r="A91" s="3">
         <v>166001</v>
       </c>
@@ -15101,9 +14552,8 @@
       <c r="AO91" s="3">
         <v>200</v>
       </c>
-      <c r="AP91" s="3"/>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:42">
+    <row r="92" spans="1:41">
       <c r="A92" s="3">
         <v>166002</v>
       </c>
@@ -15221,9 +14671,8 @@
       <c r="AO92" s="3">
         <v>200</v>
       </c>
-      <c r="AP92" s="3"/>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:42">
+    <row r="93" spans="1:41">
       <c r="A93" s="3">
         <v>166003</v>
       </c>
@@ -15341,9 +14790,8 @@
       <c r="AO93" s="3">
         <v>200</v>
       </c>
-      <c r="AP93" s="3"/>
     </row>
-    <row r="94" s="2" customFormat="1" spans="1:42">
+    <row r="94" spans="1:41">
       <c r="A94" s="3">
         <v>166004</v>
       </c>
@@ -15461,9 +14909,8 @@
       <c r="AO94" s="3">
         <v>200</v>
       </c>
-      <c r="AP94" s="3"/>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:42">
+    <row r="95" spans="1:41">
       <c r="A95" s="3">
         <v>166005</v>
       </c>
@@ -15581,9 +15028,8 @@
       <c r="AO95" s="3">
         <v>200</v>
       </c>
-      <c r="AP95" s="3"/>
     </row>
-    <row r="96" s="2" customFormat="1" spans="1:42">
+    <row r="96" spans="1:41">
       <c r="A96" s="3">
         <v>166006</v>
       </c>
@@ -15603,7 +15049,7 @@
         <v>-1</v>
       </c>
       <c r="G96" s="2">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H96" s="2">
         <v>6</v>
@@ -15701,9 +15147,8 @@
       <c r="AO96" s="3">
         <v>200</v>
       </c>
-      <c r="AP96" s="3"/>
     </row>
-    <row r="97" s="2" customFormat="1" spans="1:42">
+    <row r="97" spans="1:41">
       <c r="A97" s="3">
         <v>166007</v>
       </c>
@@ -15821,9 +15266,8 @@
       <c r="AO97" s="3">
         <v>7</v>
       </c>
-      <c r="AP97" s="3"/>
     </row>
-    <row r="98" s="2" customFormat="1" spans="1:42">
+    <row r="98" spans="1:41">
       <c r="A98" s="3">
         <v>167000</v>
       </c>
@@ -15941,9 +15385,8 @@
       <c r="AO98" s="3">
         <v>200</v>
       </c>
-      <c r="AP98" s="3"/>
     </row>
-    <row r="99" s="2" customFormat="1" spans="1:42">
+    <row r="99" spans="1:41">
       <c r="A99" s="3">
         <v>167001</v>
       </c>
@@ -16061,9 +15504,8 @@
       <c r="AO99" s="3">
         <v>200</v>
       </c>
-      <c r="AP99" s="3"/>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:42">
+    <row r="100" spans="1:41">
       <c r="A100" s="3">
         <v>167002</v>
       </c>
@@ -16181,9 +15623,8 @@
       <c r="AO100" s="3">
         <v>200</v>
       </c>
-      <c r="AP100" s="3"/>
     </row>
-    <row r="101" s="2" customFormat="1" spans="1:42">
+    <row r="101" spans="1:41">
       <c r="A101" s="3">
         <v>167003</v>
       </c>
@@ -16301,9 +15742,8 @@
       <c r="AO101" s="3">
         <v>200</v>
       </c>
-      <c r="AP101" s="3"/>
     </row>
-    <row r="102" s="2" customFormat="1" spans="1:42">
+    <row r="102" spans="1:41">
       <c r="A102" s="3">
         <v>167004</v>
       </c>
@@ -16421,9 +15861,8 @@
       <c r="AO102" s="3">
         <v>200</v>
       </c>
-      <c r="AP102" s="3"/>
     </row>
-    <row r="103" s="2" customFormat="1" spans="1:42">
+    <row r="103" spans="1:41">
       <c r="A103" s="3">
         <v>167005</v>
       </c>
@@ -16541,9 +15980,8 @@
       <c r="AO103" s="3">
         <v>200</v>
       </c>
-      <c r="AP103" s="3"/>
     </row>
-    <row r="104" s="2" customFormat="1" spans="1:42">
+    <row r="104" spans="1:41">
       <c r="A104" s="3">
         <v>167006</v>
       </c>
@@ -16563,7 +16001,7 @@
         <v>-1</v>
       </c>
       <c r="G104" s="2">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H104" s="2">
         <v>6</v>
@@ -16661,9 +16099,8 @@
       <c r="AO104" s="3">
         <v>200</v>
       </c>
-      <c r="AP104" s="3"/>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:42">
+    <row r="105" spans="1:41">
       <c r="A105" s="3">
         <v>167007</v>
       </c>
@@ -16781,9 +16218,8 @@
       <c r="AO105" s="3">
         <v>7</v>
       </c>
-      <c r="AP105" s="3"/>
     </row>
-    <row r="106" s="2" customFormat="1" spans="1:42">
+    <row r="106" spans="1:41">
       <c r="A106" s="3">
         <v>168000</v>
       </c>
@@ -16901,9 +16337,8 @@
       <c r="AO106" s="3">
         <v>200</v>
       </c>
-      <c r="AP106" s="3"/>
     </row>
-    <row r="107" s="2" customFormat="1" spans="1:42">
+    <row r="107" spans="1:41">
       <c r="A107" s="3">
         <v>168001</v>
       </c>
@@ -17021,9 +16456,8 @@
       <c r="AO107" s="3">
         <v>200</v>
       </c>
-      <c r="AP107" s="3"/>
     </row>
-    <row r="108" s="2" customFormat="1" spans="1:42">
+    <row r="108" spans="1:41">
       <c r="A108" s="3">
         <v>168002</v>
       </c>
@@ -17141,9 +16575,8 @@
       <c r="AO108" s="3">
         <v>200</v>
       </c>
-      <c r="AP108" s="3"/>
     </row>
-    <row r="109" s="2" customFormat="1" spans="1:42">
+    <row r="109" spans="1:41">
       <c r="A109" s="3">
         <v>168003</v>
       </c>
@@ -17261,9 +16694,8 @@
       <c r="AO109" s="3">
         <v>200</v>
       </c>
-      <c r="AP109" s="3"/>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:42">
+    <row r="110" spans="1:41">
       <c r="A110" s="3">
         <v>168004</v>
       </c>
@@ -17381,9 +16813,8 @@
       <c r="AO110" s="3">
         <v>200</v>
       </c>
-      <c r="AP110" s="3"/>
     </row>
-    <row r="111" s="2" customFormat="1" spans="1:42">
+    <row r="111" spans="1:41">
       <c r="A111" s="3">
         <v>168005</v>
       </c>
@@ -17501,9 +16932,8 @@
       <c r="AO111" s="3">
         <v>200</v>
       </c>
-      <c r="AP111" s="3"/>
     </row>
-    <row r="112" s="2" customFormat="1" spans="1:42">
+    <row r="112" spans="1:41">
       <c r="A112" s="3">
         <v>168006</v>
       </c>
@@ -17523,7 +16953,7 @@
         <v>-1</v>
       </c>
       <c r="G112" s="2">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H112" s="2">
         <v>6</v>
@@ -17621,9 +17051,8 @@
       <c r="AO112" s="3">
         <v>200</v>
       </c>
-      <c r="AP112" s="3"/>
     </row>
-    <row r="113" s="2" customFormat="1" spans="1:42">
+    <row r="113" spans="1:41">
       <c r="A113" s="3">
         <v>168007</v>
       </c>
@@ -17741,9 +17170,8 @@
       <c r="AO113" s="3">
         <v>7</v>
       </c>
-      <c r="AP113" s="3"/>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:42">
+    <row r="114" spans="1:41">
       <c r="A114" s="3">
         <v>169000</v>
       </c>
@@ -17861,9 +17289,8 @@
       <c r="AO114" s="3">
         <v>200</v>
       </c>
-      <c r="AP114" s="3"/>
     </row>
-    <row r="115" s="2" customFormat="1" spans="1:42">
+    <row r="115" spans="1:41">
       <c r="A115" s="3">
         <v>169001</v>
       </c>
@@ -17981,9 +17408,8 @@
       <c r="AO115" s="3">
         <v>200</v>
       </c>
-      <c r="AP115" s="3"/>
     </row>
-    <row r="116" s="2" customFormat="1" spans="1:42">
+    <row r="116" spans="1:41">
       <c r="A116" s="3">
         <v>169002</v>
       </c>
@@ -18101,9 +17527,8 @@
       <c r="AO116" s="3">
         <v>200</v>
       </c>
-      <c r="AP116" s="3"/>
     </row>
-    <row r="117" s="2" customFormat="1" spans="1:42">
+    <row r="117" spans="1:41">
       <c r="A117" s="3">
         <v>169003</v>
       </c>
@@ -18221,9 +17646,8 @@
       <c r="AO117" s="3">
         <v>200</v>
       </c>
-      <c r="AP117" s="3"/>
     </row>
-    <row r="118" s="2" customFormat="1" spans="1:42">
+    <row r="118" spans="1:41">
       <c r="A118" s="3">
         <v>169004</v>
       </c>
@@ -18341,9 +17765,8 @@
       <c r="AO118" s="3">
         <v>200</v>
       </c>
-      <c r="AP118" s="3"/>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:42">
+    <row r="119" spans="1:41">
       <c r="A119" s="3">
         <v>169005</v>
       </c>
@@ -18461,9 +17884,8 @@
       <c r="AO119" s="3">
         <v>200</v>
       </c>
-      <c r="AP119" s="3"/>
     </row>
-    <row r="120" s="2" customFormat="1" spans="1:42">
+    <row r="120" spans="1:41">
       <c r="A120" s="3">
         <v>169006</v>
       </c>
@@ -18483,7 +17905,7 @@
         <v>-1</v>
       </c>
       <c r="G120" s="2">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H120" s="2">
         <v>6</v>
@@ -18581,9 +18003,8 @@
       <c r="AO120" s="3">
         <v>200</v>
       </c>
-      <c r="AP120" s="3"/>
     </row>
-    <row r="121" s="2" customFormat="1" spans="1:42">
+    <row r="121" spans="1:41">
       <c r="A121" s="3">
         <v>169007</v>
       </c>
@@ -18701,9 +18122,8 @@
       <c r="AO121" s="3">
         <v>7</v>
       </c>
-      <c r="AP121" s="3"/>
     </row>
-    <row r="122" customFormat="1" spans="1:41">
+    <row r="122" spans="1:41" customFormat="1">
       <c r="A122" s="39">
         <v>171006</v>
       </c>
@@ -18825,7 +18245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" customFormat="1" spans="1:41">
+    <row r="123" spans="1:41" customFormat="1">
       <c r="A123" s="41">
         <v>172006</v>
       </c>
@@ -18947,7 +18367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" customFormat="1" spans="1:41">
+    <row r="124" spans="1:41" customFormat="1">
       <c r="A124" s="39">
         <v>173006</v>
       </c>
@@ -19069,7 +18489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" customFormat="1" spans="1:41">
+    <row r="125" spans="1:41" customFormat="1">
       <c r="A125" s="41">
         <v>174006</v>
       </c>
@@ -19191,7 +18611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" customFormat="1" spans="1:41">
+    <row r="126" spans="1:41" customFormat="1">
       <c r="A126" s="39">
         <v>175006</v>
       </c>
@@ -19313,7 +18733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" customFormat="1" spans="1:41">
+    <row r="127" spans="1:41" customFormat="1">
       <c r="A127" s="41">
         <v>176006</v>
       </c>
@@ -19435,7 +18855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" customFormat="1" spans="1:41">
+    <row r="128" spans="1:41" customFormat="1">
       <c r="A128" s="12">
         <v>177006</v>
       </c>
@@ -19557,7 +18977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" customFormat="1" spans="1:41">
+    <row r="129" spans="1:42" customFormat="1">
       <c r="A129" s="12">
         <v>178006</v>
       </c>
@@ -19679,7 +19099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" customFormat="1" spans="1:41">
+    <row r="130" spans="1:42" customFormat="1">
       <c r="A130" s="12">
         <v>179006</v>
       </c>
@@ -19801,7 +19221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:42">
+    <row r="131" spans="1:42">
       <c r="A131" s="12">
         <v>181006</v>
       </c>
@@ -19925,9 +19345,8 @@
       <c r="AO131" s="2">
         <v>7</v>
       </c>
-      <c r="AP131" s="3"/>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:42">
+    <row r="132" spans="1:42">
       <c r="A132" s="12">
         <v>182006</v>
       </c>
@@ -20051,9 +19470,8 @@
       <c r="AO132" s="2">
         <v>7</v>
       </c>
-      <c r="AP132" s="3"/>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:42">
+    <row r="133" spans="1:42">
       <c r="A133" s="12">
         <v>184006</v>
       </c>
@@ -20177,9 +19595,8 @@
       <c r="AO133" s="2">
         <v>7</v>
       </c>
-      <c r="AP133" s="3"/>
     </row>
-    <row r="134" s="2" customFormat="1" spans="1:42">
+    <row r="134" spans="1:42">
       <c r="A134" s="12">
         <v>186006</v>
       </c>
@@ -20303,9 +19720,8 @@
       <c r="AO134" s="2">
         <v>200</v>
       </c>
-      <c r="AP134" s="3"/>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:42">
+    <row r="135" spans="1:42">
       <c r="A135" s="12">
         <v>187006</v>
       </c>
@@ -20429,9 +19845,8 @@
       <c r="AO135" s="2">
         <v>200</v>
       </c>
-      <c r="AP135" s="3"/>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:42">
+    <row r="136" spans="1:42">
       <c r="A136" s="12">
         <v>188006</v>
       </c>
@@ -20549,46 +19964,160 @@
       <c r="AO136" s="3">
         <v>7</v>
       </c>
-      <c r="AP136" s="3"/>
+    </row>
+    <row r="137" spans="1:42" s="1" customFormat="1">
+      <c r="A137" s="12">
+        <v>180017</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E137" s="1">
+        <v>337</v>
+      </c>
+      <c r="F137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H137" s="1">
+        <v>6</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="16">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="S137" s="3">
+        <v>7</v>
+      </c>
+      <c r="T137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="U137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="V137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="W137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="X137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z137" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH137" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI137" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ137" s="33">
+        <v>200</v>
+      </c>
+      <c r="AK137" s="33">
+        <v>200</v>
+      </c>
+      <c r="AL137" s="33">
+        <v>200</v>
+      </c>
+      <c r="AM137" s="33">
+        <v>200</v>
+      </c>
+      <c r="AN137" s="33">
+        <v>200</v>
+      </c>
+      <c r="AO137" s="33">
+        <v>200</v>
+      </c>
+      <c r="AP137" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <autoFilter ref="A1:AO136" xr:uid="{09F33BCD-C326-486D-8747-DEA59E8F7779}"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\技能相关表\j技能显示表-复合\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A705521-7754-4DC9-83FA-9EB7DB0DEA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="202"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +12,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,12 +33,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 技能概括，战斗中选择技能时显示</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,12 +47,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 消耗=等级*系数a1+系数b1</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,13 +61,13 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 Administrator:
 消耗=等级*系数a1+系数b1</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,12 +76,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 消耗1=等级*系数a1+系数b1</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,13 +90,13 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 Administrator:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,12 +105,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,12 +119,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +133,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>选择目标类型 user:
+          <t xml:space="preserve">选择目标类型 user:
 480：选取敌人
 4127：选取自己方
 1：自己
@@ -162,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,12 +165,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>user:
+          <t xml:space="preserve">user:
 未开启时使用</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +195,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>user:
+          <t xml:space="preserve">user:
 未开启时使用</t>
         </r>
       </text>
@@ -211,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527">
   <si>
     <t>技能id</t>
   </si>
@@ -2117,8 +2111,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2192,9 +2192,131 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2204,35 +2326,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF00FF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2259,7 +2373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2283,12 +2397,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2356,417 +2638,635 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="200">
+  <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2775,10 +3275,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2787,10 +3287,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2799,136 +3299,136 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2972,43 +3472,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3023,10 +3523,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3034,13 +3534,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="54" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3049,245 +3549,281 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="54" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="196" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="241" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="200">
-    <cellStyle name="20% - 着色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="差 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="差 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="差 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="差 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="差 2 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="差 2 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="差 2 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="差 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="差 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="差 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="差 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="差 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="差 8" xfId="22" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+  <cellStyles count="245">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="31" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="常规 10 10" xfId="38" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="常规 10 11" xfId="17" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="常规 10 12" xfId="39" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="常规 10 13" xfId="40" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 10 14" xfId="42" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="常规 10 15" xfId="45" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="常规 10 16" xfId="49" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 10 17" xfId="52" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 10 18" xfId="56" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 10 19" xfId="59" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="常规 10 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="常规 10 20" xfId="46" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 10 21" xfId="50" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 10 22" xfId="53" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 10 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="常规 10 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="常规 10 5" xfId="64" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="常规 10 6" xfId="65" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="常规 10 7" xfId="66" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="常规 10 8" xfId="67" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="常规 10 9" xfId="68" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="常规 12" xfId="18" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="常规 14" xfId="41" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 15" xfId="43" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 16" xfId="47" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 18" xfId="54" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 19" xfId="57" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="常规 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="常规 2 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="常规 2 5" xfId="72" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="常规 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="常规 2 7" xfId="74" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="常规 2 8" xfId="75" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="常规 20" xfId="44" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="常规 21" xfId="48" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 22" xfId="51" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 23" xfId="55" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 24" xfId="58" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="常规 25" xfId="60" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="常规 26" xfId="24" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="常规 28" xfId="76" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="常规 29" xfId="78" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="常规 3 10" xfId="80" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="常规 3 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="常规 3 12" xfId="88" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="常规 3 13" xfId="91" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="常规 3 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3 15" xfId="93" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="常规 3 16" xfId="95" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="常规 3 17" xfId="97" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="常规 3 18" xfId="99" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="常规 3 19" xfId="101" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="常规 3 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="常规 3 20" xfId="94" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="常规 3 21" xfId="96" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="常规 3 22" xfId="98" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="常规 3 23" xfId="100" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="常规 3 24" xfId="102" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="常规 3 25" xfId="104" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="常规 3 26" xfId="105" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="常规 3 27" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 3 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="常规 3 4" xfId="107" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="常规 3 5" xfId="108" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="常规 3 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="常规 3 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="常规 3 8" xfId="111" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="常规 3 9" xfId="112" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="常规 33" xfId="77" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="常规 34" xfId="79" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="常规 35" xfId="113" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="常规 36" xfId="114" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="常规 4 10" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="常规 4 11" xfId="21" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="常规 4 12" xfId="16" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="常规 4 13" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 4 14" xfId="23" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="常规 4 15" xfId="27" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 4 16" xfId="29" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="常规 4 17" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="常规 4 18" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="常规 4 19" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="常规 4 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="常规 4 20" xfId="28" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 4 21" xfId="30" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="常规 4 22" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="常规 4 3" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="常规 4 4" xfId="122" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="常规 4 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="常规 4 6" xfId="124" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="常规 4 7" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="常规 4 8" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="常规 4 9" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="常规 5" xfId="128" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="常规 6" xfId="11" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 6 10" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="常规 6 11" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="常规 6 12" xfId="129" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="常规 6 13" xfId="10" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 6 14" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="常规 6 15" xfId="139" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="常规 6 16" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="常规 6 17" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="常规 6 18" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="常规 6 19" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="常规 6 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="常规 6 20" xfId="140" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="常规 6 21" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="常规 6 22" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="常规 6 23" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="常规 6 24" xfId="154" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="常规 6 25" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="常规 6 26" xfId="160" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="常规 6 27" xfId="162" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="常规 6 28" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="常规 6 29" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="常规 6 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="常规 6 30" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="常规 6 31" xfId="161" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="常规 6 32" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="常规 6 33" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="常规 6 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="常规 6 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="常规 6 6" xfId="81" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="常规 6 7" xfId="85" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="常规 6 8" xfId="89" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="常规 6 9" xfId="92" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="常规 7" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="常规 7 10" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="常规 7 11" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="常规 7 12" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="常规 7 13" xfId="176" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="常规 7 14" xfId="177" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="常规 7 15" xfId="178" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="常规 7 16" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="常规 7 17" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="常规 7 18" xfId="156" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="常规 7 19" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="常规 7 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="常规 7 20" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="常规 7 21" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="常规 7 22" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="常规 7 23" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="常规 7 24" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="常规 7 25" xfId="171" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="常规 7 26" xfId="14" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="常规 7 27" xfId="82" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="常规 7 28" xfId="86" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="常规 7 29" xfId="90" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="常规 7 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 7 30" xfId="172" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="常规 7 31" xfId="13" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 7 32" xfId="83" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="常规 7 33" xfId="87" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="常规 7 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="常规 7 5" xfId="186" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="常规 7 6" xfId="187" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="常规 7 7" xfId="188" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="常规 7 8" xfId="189" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="常规 7 9" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="好" xfId="26" builtinId="26"/>
-    <cellStyle name="好 10" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="好 11" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="好 12" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="好 13" xfId="130" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="好 14" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="好 15" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="好 16" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="好 17" xfId="145" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="好 18" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="好 19" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="好 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="好 20" xfId="138" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="好 21" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="好 22" xfId="146" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="好 3" xfId="193" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="好 4" xfId="194" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="好 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="好 6" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="好 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="好 8" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="好 9" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="常规 3 27" xfId="2"/>
+    <cellStyle name="差 2 4" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="常规 3 14" xfId="7"/>
+    <cellStyle name="差 2 6" xfId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="9" builtinId="6"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 7 3" xfId="11"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
+    <cellStyle name="差" xfId="13" builtinId="27"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
+    <cellStyle name="常规 4 13" xfId="15"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8"/>
+    <cellStyle name="百分比" xfId="17" builtinId="5"/>
+    <cellStyle name="差 2 7" xfId="18"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9"/>
+    <cellStyle name="注释" xfId="20" builtinId="10"/>
+    <cellStyle name="好 14" xfId="21"/>
+    <cellStyle name="常规 6 13" xfId="22"/>
+    <cellStyle name="常规 6" xfId="23"/>
+    <cellStyle name="差 4" xfId="24"/>
+    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
+    <cellStyle name="常规 7 31" xfId="26"/>
+    <cellStyle name="常规 7 26" xfId="27"/>
+    <cellStyle name="常规 6 5" xfId="28"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="29" builtinId="36"/>
+    <cellStyle name="常规 4 12" xfId="30"/>
+    <cellStyle name="标题 4" xfId="31" builtinId="19"/>
+    <cellStyle name="标题" xfId="32" builtinId="15"/>
+    <cellStyle name="常规 10 11" xfId="33"/>
+    <cellStyle name="常规 12" xfId="34"/>
+    <cellStyle name="解释性文本" xfId="35" builtinId="53"/>
+    <cellStyle name="差 6" xfId="36"/>
+    <cellStyle name="标题 1" xfId="37" builtinId="16"/>
+    <cellStyle name="差 7" xfId="38"/>
+    <cellStyle name="标题 2" xfId="39" builtinId="17"/>
+    <cellStyle name="常规 4 11" xfId="40"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="41" builtinId="32"/>
+    <cellStyle name="差 8" xfId="42"/>
+    <cellStyle name="标题 3" xfId="43" builtinId="18"/>
+    <cellStyle name="常规 4 14" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="45" builtinId="44"/>
+    <cellStyle name="输出" xfId="46" builtinId="21"/>
+    <cellStyle name="常规 26" xfId="47"/>
+    <cellStyle name="计算" xfId="48" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="49" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="50" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="51" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
+    <cellStyle name="汇总" xfId="53" builtinId="25"/>
+    <cellStyle name="好" xfId="54" builtinId="26"/>
+    <cellStyle name="适中" xfId="55" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="56" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="57" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="58" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="59" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="60" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="61" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="62" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="63" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="64" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="65" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="66" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="67" builtinId="47"/>
+    <cellStyle name="常规 4 15" xfId="68"/>
+    <cellStyle name="常规 4 20" xfId="69"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="70" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="71" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="72" builtinId="51"/>
+    <cellStyle name="常规 4 16" xfId="73"/>
+    <cellStyle name="常规 4 21" xfId="74"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="75" builtinId="52"/>
+    <cellStyle name="常规 10" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="差 2 2" xfId="78"/>
+    <cellStyle name="差 2 3" xfId="79"/>
+    <cellStyle name="差 2 5" xfId="80"/>
+    <cellStyle name="差 3" xfId="81"/>
+    <cellStyle name="差 5" xfId="82"/>
+    <cellStyle name="常规 10 10" xfId="83"/>
+    <cellStyle name="常规 10 12" xfId="84"/>
+    <cellStyle name="常规 10 13" xfId="85"/>
+    <cellStyle name="常规 14" xfId="86"/>
+    <cellStyle name="常规 10 14" xfId="87"/>
+    <cellStyle name="常规 15" xfId="88"/>
+    <cellStyle name="常规 20" xfId="89"/>
+    <cellStyle name="常规 10 15" xfId="90"/>
+    <cellStyle name="常规 10 20" xfId="91"/>
+    <cellStyle name="常规 16" xfId="92"/>
+    <cellStyle name="常规 21" xfId="93"/>
+    <cellStyle name="常规 10 16" xfId="94"/>
+    <cellStyle name="常规 10 21" xfId="95"/>
+    <cellStyle name="常规 22" xfId="96"/>
+    <cellStyle name="常规 10 17" xfId="97"/>
+    <cellStyle name="常规 10 22" xfId="98"/>
+    <cellStyle name="常规 18" xfId="99"/>
+    <cellStyle name="常规 23" xfId="100"/>
+    <cellStyle name="常规 10 18" xfId="101"/>
+    <cellStyle name="常规 19" xfId="102"/>
+    <cellStyle name="常规 24" xfId="103"/>
+    <cellStyle name="常规 10 19" xfId="104"/>
+    <cellStyle name="常规 25" xfId="105"/>
+    <cellStyle name="常规 10 2" xfId="106"/>
+    <cellStyle name="常规 10 3" xfId="107"/>
+    <cellStyle name="常规 10 4" xfId="108"/>
+    <cellStyle name="常规 10 5" xfId="109"/>
+    <cellStyle name="常规 10 6" xfId="110"/>
+    <cellStyle name="常规 10 7" xfId="111"/>
+    <cellStyle name="常规 10 8" xfId="112"/>
+    <cellStyle name="常规 10 9" xfId="113"/>
+    <cellStyle name="常规 2 2" xfId="114"/>
+    <cellStyle name="常规 2 3" xfId="115"/>
+    <cellStyle name="常规 2 4" xfId="116"/>
+    <cellStyle name="常规 2 5" xfId="117"/>
+    <cellStyle name="常规 2 6" xfId="118"/>
+    <cellStyle name="常规 2 7" xfId="119"/>
+    <cellStyle name="常规 2 8" xfId="120"/>
+    <cellStyle name="常规 28" xfId="121"/>
+    <cellStyle name="常规 33" xfId="122"/>
+    <cellStyle name="常规 29" xfId="123"/>
+    <cellStyle name="常规 34" xfId="124"/>
+    <cellStyle name="常规 3 10" xfId="125"/>
+    <cellStyle name="常规 6 6" xfId="126"/>
+    <cellStyle name="常规 7 27" xfId="127"/>
+    <cellStyle name="常规 7 32" xfId="128"/>
+    <cellStyle name="常规 3 11" xfId="129"/>
+    <cellStyle name="常规 6 7" xfId="130"/>
+    <cellStyle name="常规 7 28" xfId="131"/>
+    <cellStyle name="常规 7 33" xfId="132"/>
+    <cellStyle name="常规 3 12" xfId="133"/>
+    <cellStyle name="常规 6 8" xfId="134"/>
+    <cellStyle name="常规 7 29" xfId="135"/>
+    <cellStyle name="常规 3 13" xfId="136"/>
+    <cellStyle name="常规 6 9" xfId="137"/>
+    <cellStyle name="常规 3 15" xfId="138"/>
+    <cellStyle name="常规 3 20" xfId="139"/>
+    <cellStyle name="常规 3 16" xfId="140"/>
+    <cellStyle name="常规 3 21" xfId="141"/>
+    <cellStyle name="常规 3 17" xfId="142"/>
+    <cellStyle name="常规 3 22" xfId="143"/>
+    <cellStyle name="常规 3 18" xfId="144"/>
+    <cellStyle name="常规 3 23" xfId="145"/>
+    <cellStyle name="常规 3 19" xfId="146"/>
+    <cellStyle name="常规 3 24" xfId="147"/>
+    <cellStyle name="常规 3 2" xfId="148"/>
+    <cellStyle name="常规 3 25" xfId="149"/>
+    <cellStyle name="常规 3 26" xfId="150"/>
+    <cellStyle name="常规 3 3" xfId="151"/>
+    <cellStyle name="常规 3 4" xfId="152"/>
+    <cellStyle name="常规 3 5" xfId="153"/>
+    <cellStyle name="常规 3 6" xfId="154"/>
+    <cellStyle name="常规 3 7" xfId="155"/>
+    <cellStyle name="常规 3 8" xfId="156"/>
+    <cellStyle name="常规 3 9" xfId="157"/>
+    <cellStyle name="常规 35" xfId="158"/>
+    <cellStyle name="常规 36" xfId="159"/>
+    <cellStyle name="常规 4 10" xfId="160"/>
+    <cellStyle name="常规 4 17" xfId="161"/>
+    <cellStyle name="常规 4 22" xfId="162"/>
+    <cellStyle name="常规 4 18" xfId="163"/>
+    <cellStyle name="常规 4 19" xfId="164"/>
+    <cellStyle name="常规 4 2" xfId="165"/>
+    <cellStyle name="常规 4 3" xfId="166"/>
+    <cellStyle name="常规 4 4" xfId="167"/>
+    <cellStyle name="常规 4 5" xfId="168"/>
+    <cellStyle name="常规 4 6" xfId="169"/>
+    <cellStyle name="常规 4 7" xfId="170"/>
+    <cellStyle name="常规 4 8" xfId="171"/>
+    <cellStyle name="常规 4 9" xfId="172"/>
+    <cellStyle name="常规 5" xfId="173"/>
+    <cellStyle name="常规 6 12" xfId="174"/>
+    <cellStyle name="好 13" xfId="175"/>
+    <cellStyle name="常规 6 10" xfId="176"/>
+    <cellStyle name="好 11" xfId="177"/>
+    <cellStyle name="常规 6 11" xfId="178"/>
+    <cellStyle name="好 12" xfId="179"/>
+    <cellStyle name="常规 6 14" xfId="180"/>
+    <cellStyle name="常规 7" xfId="181"/>
+    <cellStyle name="好 15" xfId="182"/>
+    <cellStyle name="好 20" xfId="183"/>
+    <cellStyle name="常规 6 15" xfId="184"/>
+    <cellStyle name="常规 6 20" xfId="185"/>
+    <cellStyle name="好 16" xfId="186"/>
+    <cellStyle name="好 21" xfId="187"/>
+    <cellStyle name="常规 6 16" xfId="188"/>
+    <cellStyle name="常规 6 21" xfId="189"/>
+    <cellStyle name="好 17" xfId="190"/>
+    <cellStyle name="好 22" xfId="191"/>
+    <cellStyle name="常规 6 17" xfId="192"/>
+    <cellStyle name="常规 6 22" xfId="193"/>
+    <cellStyle name="好 18" xfId="194"/>
+    <cellStyle name="常规 6 18" xfId="195"/>
+    <cellStyle name="常规 6 23" xfId="196"/>
+    <cellStyle name="好 19" xfId="197"/>
+    <cellStyle name="常规 6 19" xfId="198"/>
+    <cellStyle name="常规 6 24" xfId="199"/>
+    <cellStyle name="常规 6 2" xfId="200"/>
+    <cellStyle name="常规 7 18" xfId="201"/>
+    <cellStyle name="常规 7 23" xfId="202"/>
+    <cellStyle name="常规 6 25" xfId="203"/>
+    <cellStyle name="常规 6 30" xfId="204"/>
+    <cellStyle name="常规 6 26" xfId="205"/>
+    <cellStyle name="常规 6 31" xfId="206"/>
+    <cellStyle name="常规 6 27" xfId="207"/>
+    <cellStyle name="常规 6 32" xfId="208"/>
+    <cellStyle name="常规 6 28" xfId="209"/>
+    <cellStyle name="常规 6 33" xfId="210"/>
+    <cellStyle name="常规 6 29" xfId="211"/>
+    <cellStyle name="常规 6 3" xfId="212"/>
+    <cellStyle name="常规 7 19" xfId="213"/>
+    <cellStyle name="常规 7 24" xfId="214"/>
+    <cellStyle name="常规 6 4" xfId="215"/>
+    <cellStyle name="常规 7 25" xfId="216"/>
+    <cellStyle name="常规 7 30" xfId="217"/>
+    <cellStyle name="常规 7 10" xfId="218"/>
+    <cellStyle name="常规 7 11" xfId="219"/>
+    <cellStyle name="常规 7 12" xfId="220"/>
+    <cellStyle name="常规 7 13" xfId="221"/>
+    <cellStyle name="常规 7 14" xfId="222"/>
+    <cellStyle name="常规 7 15" xfId="223"/>
+    <cellStyle name="常规 7 20" xfId="224"/>
+    <cellStyle name="常规 7 16" xfId="225"/>
+    <cellStyle name="常规 7 21" xfId="226"/>
+    <cellStyle name="常规 7 17" xfId="227"/>
+    <cellStyle name="常规 7 22" xfId="228"/>
+    <cellStyle name="常规 7 2" xfId="229"/>
+    <cellStyle name="常规 7 4" xfId="230"/>
+    <cellStyle name="常规 7 5" xfId="231"/>
+    <cellStyle name="常规 7 6" xfId="232"/>
+    <cellStyle name="常规 7 7" xfId="233"/>
+    <cellStyle name="常规 7 8" xfId="234"/>
+    <cellStyle name="常规 7 9" xfId="235"/>
+    <cellStyle name="好 10" xfId="236"/>
+    <cellStyle name="好 2" xfId="237"/>
+    <cellStyle name="好 3" xfId="238"/>
+    <cellStyle name="好 4" xfId="239"/>
+    <cellStyle name="好 5" xfId="240"/>
+    <cellStyle name="好 6" xfId="241"/>
+    <cellStyle name="好 7" xfId="242"/>
+    <cellStyle name="好 8" xfId="243"/>
+    <cellStyle name="好 9" xfId="244"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3619,44 +4155,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AP136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="88.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="88.7416666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="60" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6916666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.6583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.4166666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.9166666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.2166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.85833333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.3666666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.325" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.2833333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.725" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.3333333333333" style="2" customWidth="1"/>
     <col min="18" max="18" width="71.125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="45.375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="28.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="25.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.9083333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="45.4083333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28.4666666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="25.6916666666667" style="2" customWidth="1"/>
+    <col min="23" max="23" width="25.825" style="2" customWidth="1"/>
     <col min="24" max="24" width="28.75" style="2" customWidth="1"/>
     <col min="25" max="25" width="67.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="69.125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="69.1666666666667" style="4" customWidth="1"/>
     <col min="27" max="27" width="44.25" style="3" customWidth="1"/>
     <col min="28" max="28" width="104.75" style="3" customWidth="1"/>
     <col min="29" max="29" width="39.625" style="3" customWidth="1"/>
@@ -3665,7 +4203,7 @@
     <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="163.5" customHeight="1">
+    <row r="1" ht="163.5" customHeight="1" spans="1:42">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +4329,7 @@
       </c>
       <c r="AP1" s="37"/>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:42">
       <c r="A2" s="6">
         <v>110000</v>
       </c>
@@ -3911,7 +4449,7 @@
       </c>
       <c r="AP2" s="3"/>
     </row>
-    <row r="3" spans="1:42" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:42">
       <c r="A3" s="6">
         <v>110001</v>
       </c>
@@ -4031,7 +4569,7 @@
       </c>
       <c r="AP3" s="3"/>
     </row>
-    <row r="4" spans="1:42" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:42">
       <c r="A4" s="6">
         <v>110002</v>
       </c>
@@ -4151,7 +4689,7 @@
       </c>
       <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="1:42" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:42">
       <c r="A5" s="6">
         <v>110003</v>
       </c>
@@ -4271,7 +4809,7 @@
       </c>
       <c r="AP5" s="3"/>
     </row>
-    <row r="6" spans="1:42" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:42">
       <c r="A6" s="6">
         <v>110004</v>
       </c>
@@ -4391,7 +4929,7 @@
       </c>
       <c r="AP6" s="3"/>
     </row>
-    <row r="7" spans="1:42" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:42">
       <c r="A7" s="6">
         <v>110005</v>
       </c>
@@ -4511,7 +5049,7 @@
       </c>
       <c r="AP7" s="3"/>
     </row>
-    <row r="8" spans="1:42" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:42">
       <c r="A8" s="6">
         <v>110006</v>
       </c>
@@ -4531,7 +5069,7 @@
         <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
@@ -4631,7 +5169,7 @@
       </c>
       <c r="AP8" s="3"/>
     </row>
-    <row r="9" spans="1:42" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:42">
       <c r="A9" s="6">
         <v>110007</v>
       </c>
@@ -4749,7 +5287,7 @@
       </c>
       <c r="AP9" s="3"/>
     </row>
-    <row r="10" spans="1:42" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:42">
       <c r="A10" s="12">
         <v>120000</v>
       </c>
@@ -4869,7 +5407,7 @@
       </c>
       <c r="AP10" s="3"/>
     </row>
-    <row r="11" spans="1:42" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:42">
       <c r="A11" s="12">
         <v>120001</v>
       </c>
@@ -4989,7 +5527,7 @@
       </c>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="12" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A12" s="12">
         <v>120002</v>
       </c>
@@ -5109,7 +5647,7 @@
       </c>
       <c r="AP12" s="3"/>
     </row>
-    <row r="13" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="13" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A13" s="12">
         <v>120003</v>
       </c>
@@ -5229,7 +5767,7 @@
       </c>
       <c r="AP13" s="3"/>
     </row>
-    <row r="14" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="14" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A14" s="12">
         <v>120004</v>
       </c>
@@ -5349,7 +5887,7 @@
       </c>
       <c r="AP14" s="3"/>
     </row>
-    <row r="15" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="15" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A15" s="12">
         <v>120005</v>
       </c>
@@ -5469,7 +6007,7 @@
       </c>
       <c r="AP15" s="3"/>
     </row>
-    <row r="16" spans="1:42" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:42">
       <c r="A16" s="12">
         <v>120006</v>
       </c>
@@ -5489,7 +6027,7 @@
         <v>-1</v>
       </c>
       <c r="G16" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H16" s="1">
         <v>6</v>
@@ -5589,7 +6127,7 @@
       </c>
       <c r="AP16" s="3"/>
     </row>
-    <row r="17" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="17" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A17" s="12">
         <v>120007</v>
       </c>
@@ -5709,7 +6247,7 @@
       </c>
       <c r="AP17" s="3"/>
     </row>
-    <row r="18" spans="1:42" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:42">
       <c r="A18" s="6">
         <v>130000</v>
       </c>
@@ -5829,7 +6367,7 @@
       </c>
       <c r="AP18" s="3"/>
     </row>
-    <row r="19" spans="1:42" s="1" customFormat="1">
+    <row r="19" s="1" customFormat="1" spans="1:42">
       <c r="A19" s="6">
         <v>130001</v>
       </c>
@@ -5949,7 +6487,7 @@
       </c>
       <c r="AP19" s="3"/>
     </row>
-    <row r="20" spans="1:42" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:42">
       <c r="A20" s="6">
         <v>130002</v>
       </c>
@@ -6069,7 +6607,7 @@
       </c>
       <c r="AP20" s="3"/>
     </row>
-    <row r="21" spans="1:42" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:42">
       <c r="A21" s="6">
         <v>130003</v>
       </c>
@@ -6189,7 +6727,7 @@
       </c>
       <c r="AP21" s="3"/>
     </row>
-    <row r="22" spans="1:42" s="1" customFormat="1">
+    <row r="22" s="1" customFormat="1" spans="1:42">
       <c r="A22" s="6">
         <v>130004</v>
       </c>
@@ -6309,7 +6847,7 @@
       </c>
       <c r="AP22" s="3"/>
     </row>
-    <row r="23" spans="1:42" s="1" customFormat="1">
+    <row r="23" s="1" customFormat="1" spans="1:42">
       <c r="A23" s="6">
         <v>130005</v>
       </c>
@@ -6429,7 +6967,7 @@
       </c>
       <c r="AP23" s="3"/>
     </row>
-    <row r="24" spans="1:42" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:42">
       <c r="A24" s="6">
         <v>130006</v>
       </c>
@@ -6449,7 +6987,7 @@
         <v>-1</v>
       </c>
       <c r="G24" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H24" s="1">
         <v>6</v>
@@ -6549,7 +7087,7 @@
       </c>
       <c r="AP24" s="3"/>
     </row>
-    <row r="25" spans="1:42" s="1" customFormat="1">
+    <row r="25" s="1" customFormat="1" spans="1:42">
       <c r="A25" s="6">
         <v>130007</v>
       </c>
@@ -6667,7 +7205,7 @@
       </c>
       <c r="AP25" s="3"/>
     </row>
-    <row r="26" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="26" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A26" s="12">
         <v>140000</v>
       </c>
@@ -6787,7 +7325,7 @@
       </c>
       <c r="AP26" s="3"/>
     </row>
-    <row r="27" spans="1:42" s="1" customFormat="1">
+    <row r="27" s="1" customFormat="1" spans="1:42">
       <c r="A27" s="12">
         <v>140001</v>
       </c>
@@ -6907,7 +7445,7 @@
       </c>
       <c r="AP27" s="3"/>
     </row>
-    <row r="28" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="28" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A28" s="12">
         <v>140002</v>
       </c>
@@ -7027,7 +7565,7 @@
       </c>
       <c r="AP28" s="3"/>
     </row>
-    <row r="29" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="29" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A29" s="12">
         <v>140003</v>
       </c>
@@ -7147,7 +7685,7 @@
       </c>
       <c r="AP29" s="3"/>
     </row>
-    <row r="30" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="30" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A30" s="12">
         <v>140004</v>
       </c>
@@ -7267,7 +7805,7 @@
       </c>
       <c r="AP30" s="3"/>
     </row>
-    <row r="31" spans="1:42" s="1" customFormat="1">
+    <row r="31" s="1" customFormat="1" spans="1:42">
       <c r="A31" s="12">
         <v>140005</v>
       </c>
@@ -7387,7 +7925,7 @@
       </c>
       <c r="AP31" s="3"/>
     </row>
-    <row r="32" spans="1:42" s="1" customFormat="1">
+    <row r="32" s="1" customFormat="1" spans="1:42">
       <c r="A32" s="12">
         <v>140006</v>
       </c>
@@ -7407,7 +7945,7 @@
         <v>-1</v>
       </c>
       <c r="G32" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H32" s="1">
         <v>6</v>
@@ -7507,7 +8045,7 @@
       </c>
       <c r="AP32" s="3"/>
     </row>
-    <row r="33" spans="1:42" s="1" customFormat="1">
+    <row r="33" s="1" customFormat="1" spans="1:42">
       <c r="A33" s="12">
         <v>140007</v>
       </c>
@@ -7625,7 +8163,7 @@
       </c>
       <c r="AP33" s="3"/>
     </row>
-    <row r="34" spans="1:42" s="1" customFormat="1">
+    <row r="34" s="1" customFormat="1" spans="1:42">
       <c r="A34" s="6">
         <v>150000</v>
       </c>
@@ -7745,7 +8283,7 @@
       </c>
       <c r="AP34" s="3"/>
     </row>
-    <row r="35" spans="1:42" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:42">
       <c r="A35" s="6">
         <v>150001</v>
       </c>
@@ -7865,7 +8403,7 @@
       </c>
       <c r="AP35" s="3"/>
     </row>
-    <row r="36" spans="1:42" s="1" customFormat="1">
+    <row r="36" s="1" customFormat="1" spans="1:42">
       <c r="A36" s="6">
         <v>150002</v>
       </c>
@@ -7985,7 +8523,7 @@
       </c>
       <c r="AP36" s="3"/>
     </row>
-    <row r="37" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="37" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A37" s="12">
         <v>150003</v>
       </c>
@@ -8105,7 +8643,7 @@
       </c>
       <c r="AP37" s="3"/>
     </row>
-    <row r="38" spans="1:42" s="1" customFormat="1">
+    <row r="38" s="1" customFormat="1" spans="1:42">
       <c r="A38" s="6">
         <v>150004</v>
       </c>
@@ -8225,7 +8763,7 @@
       </c>
       <c r="AP38" s="3"/>
     </row>
-    <row r="39" spans="1:42" s="1" customFormat="1">
+    <row r="39" s="1" customFormat="1" spans="1:42">
       <c r="A39" s="12">
         <v>150005</v>
       </c>
@@ -8345,7 +8883,7 @@
       </c>
       <c r="AP39" s="3"/>
     </row>
-    <row r="40" spans="1:42" s="1" customFormat="1">
+    <row r="40" s="1" customFormat="1" spans="1:42">
       <c r="A40" s="6">
         <v>150006</v>
       </c>
@@ -8365,7 +8903,7 @@
         <v>-1</v>
       </c>
       <c r="G40" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H40" s="1">
         <v>6</v>
@@ -8465,7 +9003,7 @@
       </c>
       <c r="AP40" s="3"/>
     </row>
-    <row r="41" spans="1:42" s="1" customFormat="1">
+    <row r="41" s="1" customFormat="1" spans="1:42">
       <c r="A41" s="12">
         <v>150007</v>
       </c>
@@ -8583,7 +9121,7 @@
       </c>
       <c r="AP41" s="3"/>
     </row>
-    <row r="42" spans="1:42" s="1" customFormat="1">
+    <row r="42" s="1" customFormat="1" spans="1:42">
       <c r="A42" s="12">
         <v>160000</v>
       </c>
@@ -8703,7 +9241,7 @@
       </c>
       <c r="AP42" s="3"/>
     </row>
-    <row r="43" spans="1:42" s="1" customFormat="1">
+    <row r="43" s="1" customFormat="1" spans="1:42">
       <c r="A43" s="12">
         <v>160001</v>
       </c>
@@ -8823,7 +9361,7 @@
       </c>
       <c r="AP43" s="3"/>
     </row>
-    <row r="44" spans="1:42" s="1" customFormat="1">
+    <row r="44" s="1" customFormat="1" spans="1:42">
       <c r="A44" s="12">
         <v>160002</v>
       </c>
@@ -8943,7 +9481,7 @@
       </c>
       <c r="AP44" s="3"/>
     </row>
-    <row r="45" spans="1:42" s="1" customFormat="1">
+    <row r="45" s="1" customFormat="1" spans="1:42">
       <c r="A45" s="12">
         <v>160003</v>
       </c>
@@ -9063,7 +9601,7 @@
       </c>
       <c r="AP45" s="3"/>
     </row>
-    <row r="46" spans="1:42" s="1" customFormat="1">
+    <row r="46" s="1" customFormat="1" spans="1:42">
       <c r="A46" s="12">
         <v>160004</v>
       </c>
@@ -9183,7 +9721,7 @@
       </c>
       <c r="AP46" s="3"/>
     </row>
-    <row r="47" spans="1:42" s="1" customFormat="1">
+    <row r="47" s="1" customFormat="1" spans="1:42">
       <c r="A47" s="12">
         <v>160005</v>
       </c>
@@ -9303,7 +9841,7 @@
       </c>
       <c r="AP47" s="3"/>
     </row>
-    <row r="48" spans="1:42" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:42">
       <c r="A48" s="12">
         <v>160006</v>
       </c>
@@ -9323,7 +9861,7 @@
         <v>-1</v>
       </c>
       <c r="G48" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H48" s="1">
         <v>6</v>
@@ -9423,7 +9961,7 @@
       </c>
       <c r="AP48" s="3"/>
     </row>
-    <row r="49" spans="1:42" s="1" customFormat="1" ht="27">
+    <row r="49" s="1" customFormat="1" ht="27" spans="1:42">
       <c r="A49" s="12">
         <v>160007</v>
       </c>
@@ -9541,7 +10079,7 @@
       </c>
       <c r="AP49" s="3"/>
     </row>
-    <row r="50" spans="1:42" s="1" customFormat="1">
+    <row r="50" s="1" customFormat="1" spans="1:42">
       <c r="A50" s="12">
         <v>161000</v>
       </c>
@@ -9661,7 +10199,7 @@
       </c>
       <c r="AP50" s="3"/>
     </row>
-    <row r="51" spans="1:42" s="1" customFormat="1">
+    <row r="51" s="1" customFormat="1" spans="1:42">
       <c r="A51" s="12">
         <v>161001</v>
       </c>
@@ -9781,7 +10319,7 @@
       </c>
       <c r="AP51" s="3"/>
     </row>
-    <row r="52" spans="1:42" s="1" customFormat="1">
+    <row r="52" s="1" customFormat="1" spans="1:42">
       <c r="A52" s="12">
         <v>161002</v>
       </c>
@@ -9901,7 +10439,7 @@
       </c>
       <c r="AP52" s="3"/>
     </row>
-    <row r="53" spans="1:42" s="1" customFormat="1">
+    <row r="53" s="1" customFormat="1" spans="1:42">
       <c r="A53" s="12">
         <v>161003</v>
       </c>
@@ -10021,7 +10559,7 @@
       </c>
       <c r="AP53" s="3"/>
     </row>
-    <row r="54" spans="1:42" s="1" customFormat="1">
+    <row r="54" s="1" customFormat="1" spans="1:42">
       <c r="A54" s="12">
         <v>161004</v>
       </c>
@@ -10141,7 +10679,7 @@
       </c>
       <c r="AP54" s="3"/>
     </row>
-    <row r="55" spans="1:42" s="1" customFormat="1">
+    <row r="55" s="1" customFormat="1" spans="1:42">
       <c r="A55" s="12">
         <v>161005</v>
       </c>
@@ -10261,7 +10799,7 @@
       </c>
       <c r="AP55" s="3"/>
     </row>
-    <row r="56" spans="1:42" s="1" customFormat="1">
+    <row r="56" s="1" customFormat="1" spans="1:42">
       <c r="A56" s="12">
         <v>161006</v>
       </c>
@@ -10281,7 +10819,7 @@
         <v>-1</v>
       </c>
       <c r="G56" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H56" s="1">
         <v>6</v>
@@ -10381,7 +10919,7 @@
       </c>
       <c r="AP56" s="3"/>
     </row>
-    <row r="57" spans="1:42" s="1" customFormat="1">
+    <row r="57" s="1" customFormat="1" spans="1:42">
       <c r="A57" s="12">
         <v>161007</v>
       </c>
@@ -10499,7 +11037,7 @@
       </c>
       <c r="AP57" s="3"/>
     </row>
-    <row r="58" spans="1:42" s="1" customFormat="1">
+    <row r="58" s="1" customFormat="1" spans="1:42">
       <c r="A58" s="12">
         <v>162000</v>
       </c>
@@ -10619,7 +11157,7 @@
       </c>
       <c r="AP58" s="3"/>
     </row>
-    <row r="59" spans="1:42" s="1" customFormat="1">
+    <row r="59" s="1" customFormat="1" spans="1:42">
       <c r="A59" s="12">
         <v>162001</v>
       </c>
@@ -10739,7 +11277,7 @@
       </c>
       <c r="AP59" s="3"/>
     </row>
-    <row r="60" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="60" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A60" s="12">
         <v>162002</v>
       </c>
@@ -10859,7 +11397,7 @@
       </c>
       <c r="AP60" s="3"/>
     </row>
-    <row r="61" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="61" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A61" s="12">
         <v>162003</v>
       </c>
@@ -10979,7 +11517,7 @@
       </c>
       <c r="AP61" s="3"/>
     </row>
-    <row r="62" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="62" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A62" s="12">
         <v>162004</v>
       </c>
@@ -11099,7 +11637,7 @@
       </c>
       <c r="AP62" s="3"/>
     </row>
-    <row r="63" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="63" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A63" s="12">
         <v>162005</v>
       </c>
@@ -11219,7 +11757,7 @@
       </c>
       <c r="AP63" s="3"/>
     </row>
-    <row r="64" spans="1:42" s="1" customFormat="1">
+    <row r="64" s="1" customFormat="1" spans="1:42">
       <c r="A64" s="12">
         <v>162006</v>
       </c>
@@ -11239,7 +11777,7 @@
         <v>-1</v>
       </c>
       <c r="G64" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H64" s="1">
         <v>6</v>
@@ -11339,7 +11877,7 @@
       </c>
       <c r="AP64" s="3"/>
     </row>
-    <row r="65" spans="1:42" s="1" customFormat="1" ht="27">
+    <row r="65" s="1" customFormat="1" ht="27" spans="1:42">
       <c r="A65" s="12">
         <v>162007</v>
       </c>
@@ -11457,7 +11995,7 @@
       </c>
       <c r="AP65" s="3"/>
     </row>
-    <row r="66" spans="1:42" s="1" customFormat="1">
+    <row r="66" s="1" customFormat="1" spans="1:42">
       <c r="A66" s="12">
         <v>163000</v>
       </c>
@@ -11577,7 +12115,7 @@
       </c>
       <c r="AP66" s="3"/>
     </row>
-    <row r="67" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="67" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A67" s="12">
         <v>163001</v>
       </c>
@@ -11697,7 +12235,7 @@
       </c>
       <c r="AP67" s="3"/>
     </row>
-    <row r="68" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="68" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A68" s="12">
         <v>163002</v>
       </c>
@@ -11817,7 +12355,7 @@
       </c>
       <c r="AP68" s="3"/>
     </row>
-    <row r="69" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="69" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A69" s="12">
         <v>163003</v>
       </c>
@@ -11937,7 +12475,7 @@
       </c>
       <c r="AP69" s="3"/>
     </row>
-    <row r="70" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="70" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A70" s="12">
         <v>163004</v>
       </c>
@@ -12057,7 +12595,7 @@
       </c>
       <c r="AP70" s="3"/>
     </row>
-    <row r="71" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="71" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A71" s="12">
         <v>163005</v>
       </c>
@@ -12177,7 +12715,7 @@
       </c>
       <c r="AP71" s="3"/>
     </row>
-    <row r="72" spans="1:42" s="1" customFormat="1">
+    <row r="72" s="1" customFormat="1" spans="1:42">
       <c r="A72" s="12">
         <v>163006</v>
       </c>
@@ -12197,7 +12735,7 @@
         <v>-1</v>
       </c>
       <c r="G72" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H72" s="1">
         <v>6</v>
@@ -12297,7 +12835,7 @@
       </c>
       <c r="AP72" s="3"/>
     </row>
-    <row r="73" spans="1:42" s="1" customFormat="1" ht="17.25">
+    <row r="73" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A73" s="12">
         <v>163007</v>
       </c>
@@ -12417,7 +12955,7 @@
       </c>
       <c r="AP73" s="3"/>
     </row>
-    <row r="74" spans="1:42" customFormat="1">
+    <row r="74" customFormat="1" spans="1:41">
       <c r="A74" s="3">
         <v>164000</v>
       </c>
@@ -12536,7 +13074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:42" customFormat="1">
+    <row r="75" customFormat="1" spans="1:41">
       <c r="A75" s="3">
         <v>164001</v>
       </c>
@@ -12655,7 +13193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:42" customFormat="1">
+    <row r="76" customFormat="1" spans="1:41">
       <c r="A76" s="3">
         <v>164002</v>
       </c>
@@ -12774,7 +13312,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:42" customFormat="1">
+    <row r="77" customFormat="1" spans="1:41">
       <c r="A77" s="3">
         <v>164003</v>
       </c>
@@ -12893,7 +13431,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:42" customFormat="1">
+    <row r="78" customFormat="1" spans="1:41">
       <c r="A78" s="3">
         <v>164004</v>
       </c>
@@ -13012,7 +13550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:42" customFormat="1">
+    <row r="79" customFormat="1" spans="1:41">
       <c r="A79" s="3">
         <v>164005</v>
       </c>
@@ -13131,7 +13669,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:42" customFormat="1">
+    <row r="80" customFormat="1" spans="1:41">
       <c r="A80" s="3">
         <v>164006</v>
       </c>
@@ -13151,7 +13689,7 @@
         <v>-1</v>
       </c>
       <c r="G80" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H80" s="2">
         <v>6</v>
@@ -13250,7 +13788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:41" customFormat="1">
+    <row r="81" customFormat="1" spans="1:41">
       <c r="A81" s="3">
         <v>164007</v>
       </c>
@@ -13369,7 +13907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" s="2" customFormat="1" spans="1:42">
       <c r="A82" s="3">
         <v>165000</v>
       </c>
@@ -13487,8 +14025,9 @@
       <c r="AO82" s="3">
         <v>200</v>
       </c>
+      <c r="AP82" s="3"/>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" s="2" customFormat="1" spans="1:42">
       <c r="A83" s="3">
         <v>165001</v>
       </c>
@@ -13606,8 +14145,9 @@
       <c r="AO83" s="3">
         <v>200</v>
       </c>
+      <c r="AP83" s="3"/>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" s="2" customFormat="1" spans="1:42">
       <c r="A84" s="3">
         <v>165002</v>
       </c>
@@ -13725,8 +14265,9 @@
       <c r="AO84" s="3">
         <v>200</v>
       </c>
+      <c r="AP84" s="3"/>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" s="2" customFormat="1" spans="1:42">
       <c r="A85" s="3">
         <v>165003</v>
       </c>
@@ -13844,8 +14385,9 @@
       <c r="AO85" s="3">
         <v>200</v>
       </c>
+      <c r="AP85" s="3"/>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" s="2" customFormat="1" spans="1:42">
       <c r="A86" s="3">
         <v>165004</v>
       </c>
@@ -13963,8 +14505,9 @@
       <c r="AO86" s="3">
         <v>200</v>
       </c>
+      <c r="AP86" s="3"/>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" s="2" customFormat="1" spans="1:42">
       <c r="A87" s="3">
         <v>165005</v>
       </c>
@@ -14082,8 +14625,9 @@
       <c r="AO87" s="3">
         <v>200</v>
       </c>
+      <c r="AP87" s="3"/>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" s="2" customFormat="1" spans="1:42">
       <c r="A88" s="3">
         <v>165006</v>
       </c>
@@ -14103,7 +14647,7 @@
         <v>-1</v>
       </c>
       <c r="G88" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H88" s="2">
         <v>6</v>
@@ -14180,6 +14724,8 @@
       <c r="AH88" s="3" t="s">
         <v>442</v>
       </c>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="3"/>
       <c r="AK88" s="3">
         <v>200</v>
       </c>
@@ -14195,8 +14741,9 @@
       <c r="AO88" s="3">
         <v>200</v>
       </c>
+      <c r="AP88" s="3"/>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" s="2" customFormat="1" spans="1:42">
       <c r="A89" s="3">
         <v>165007</v>
       </c>
@@ -14314,8 +14861,9 @@
       <c r="AO89" s="3">
         <v>7</v>
       </c>
+      <c r="AP89" s="3"/>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" s="2" customFormat="1" spans="1:42">
       <c r="A90" s="3">
         <v>166000</v>
       </c>
@@ -14433,8 +14981,9 @@
       <c r="AO90" s="3">
         <v>200</v>
       </c>
+      <c r="AP90" s="3"/>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" s="2" customFormat="1" spans="1:42">
       <c r="A91" s="3">
         <v>166001</v>
       </c>
@@ -14552,8 +15101,9 @@
       <c r="AO91" s="3">
         <v>200</v>
       </c>
+      <c r="AP91" s="3"/>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" s="2" customFormat="1" spans="1:42">
       <c r="A92" s="3">
         <v>166002</v>
       </c>
@@ -14671,8 +15221,9 @@
       <c r="AO92" s="3">
         <v>200</v>
       </c>
+      <c r="AP92" s="3"/>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" s="2" customFormat="1" spans="1:42">
       <c r="A93" s="3">
         <v>166003</v>
       </c>
@@ -14790,8 +15341,9 @@
       <c r="AO93" s="3">
         <v>200</v>
       </c>
+      <c r="AP93" s="3"/>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" s="2" customFormat="1" spans="1:42">
       <c r="A94" s="3">
         <v>166004</v>
       </c>
@@ -14909,8 +15461,9 @@
       <c r="AO94" s="3">
         <v>200</v>
       </c>
+      <c r="AP94" s="3"/>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" s="2" customFormat="1" spans="1:42">
       <c r="A95" s="3">
         <v>166005</v>
       </c>
@@ -15028,8 +15581,9 @@
       <c r="AO95" s="3">
         <v>200</v>
       </c>
+      <c r="AP95" s="3"/>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" s="2" customFormat="1" spans="1:42">
       <c r="A96" s="3">
         <v>166006</v>
       </c>
@@ -15049,7 +15603,7 @@
         <v>-1</v>
       </c>
       <c r="G96" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H96" s="2">
         <v>6</v>
@@ -15147,8 +15701,9 @@
       <c r="AO96" s="3">
         <v>200</v>
       </c>
+      <c r="AP96" s="3"/>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" s="2" customFormat="1" spans="1:42">
       <c r="A97" s="3">
         <v>166007</v>
       </c>
@@ -15266,8 +15821,9 @@
       <c r="AO97" s="3">
         <v>7</v>
       </c>
+      <c r="AP97" s="3"/>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" s="2" customFormat="1" spans="1:42">
       <c r="A98" s="3">
         <v>167000</v>
       </c>
@@ -15385,8 +15941,9 @@
       <c r="AO98" s="3">
         <v>200</v>
       </c>
+      <c r="AP98" s="3"/>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" s="2" customFormat="1" spans="1:42">
       <c r="A99" s="3">
         <v>167001</v>
       </c>
@@ -15504,8 +16061,9 @@
       <c r="AO99" s="3">
         <v>200</v>
       </c>
+      <c r="AP99" s="3"/>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" s="2" customFormat="1" spans="1:42">
       <c r="A100" s="3">
         <v>167002</v>
       </c>
@@ -15623,8 +16181,9 @@
       <c r="AO100" s="3">
         <v>200</v>
       </c>
+      <c r="AP100" s="3"/>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" s="2" customFormat="1" spans="1:42">
       <c r="A101" s="3">
         <v>167003</v>
       </c>
@@ -15742,8 +16301,9 @@
       <c r="AO101" s="3">
         <v>200</v>
       </c>
+      <c r="AP101" s="3"/>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" s="2" customFormat="1" spans="1:42">
       <c r="A102" s="3">
         <v>167004</v>
       </c>
@@ -15861,8 +16421,9 @@
       <c r="AO102" s="3">
         <v>200</v>
       </c>
+      <c r="AP102" s="3"/>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" s="2" customFormat="1" spans="1:42">
       <c r="A103" s="3">
         <v>167005</v>
       </c>
@@ -15980,8 +16541,9 @@
       <c r="AO103" s="3">
         <v>200</v>
       </c>
+      <c r="AP103" s="3"/>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" s="2" customFormat="1" spans="1:42">
       <c r="A104" s="3">
         <v>167006</v>
       </c>
@@ -16001,7 +16563,7 @@
         <v>-1</v>
       </c>
       <c r="G104" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H104" s="2">
         <v>6</v>
@@ -16099,8 +16661,9 @@
       <c r="AO104" s="3">
         <v>200</v>
       </c>
+      <c r="AP104" s="3"/>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" s="2" customFormat="1" spans="1:42">
       <c r="A105" s="3">
         <v>167007</v>
       </c>
@@ -16218,8 +16781,9 @@
       <c r="AO105" s="3">
         <v>7</v>
       </c>
+      <c r="AP105" s="3"/>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" s="2" customFormat="1" spans="1:42">
       <c r="A106" s="3">
         <v>168000</v>
       </c>
@@ -16337,8 +16901,9 @@
       <c r="AO106" s="3">
         <v>200</v>
       </c>
+      <c r="AP106" s="3"/>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" s="2" customFormat="1" spans="1:42">
       <c r="A107" s="3">
         <v>168001</v>
       </c>
@@ -16456,8 +17021,9 @@
       <c r="AO107" s="3">
         <v>200</v>
       </c>
+      <c r="AP107" s="3"/>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" s="2" customFormat="1" spans="1:42">
       <c r="A108" s="3">
         <v>168002</v>
       </c>
@@ -16575,8 +17141,9 @@
       <c r="AO108" s="3">
         <v>200</v>
       </c>
+      <c r="AP108" s="3"/>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" s="2" customFormat="1" spans="1:42">
       <c r="A109" s="3">
         <v>168003</v>
       </c>
@@ -16694,8 +17261,9 @@
       <c r="AO109" s="3">
         <v>200</v>
       </c>
+      <c r="AP109" s="3"/>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" s="2" customFormat="1" spans="1:42">
       <c r="A110" s="3">
         <v>168004</v>
       </c>
@@ -16813,8 +17381,9 @@
       <c r="AO110" s="3">
         <v>200</v>
       </c>
+      <c r="AP110" s="3"/>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" s="2" customFormat="1" spans="1:42">
       <c r="A111" s="3">
         <v>168005</v>
       </c>
@@ -16932,8 +17501,9 @@
       <c r="AO111" s="3">
         <v>200</v>
       </c>
+      <c r="AP111" s="3"/>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" s="2" customFormat="1" spans="1:42">
       <c r="A112" s="3">
         <v>168006</v>
       </c>
@@ -16953,7 +17523,7 @@
         <v>-1</v>
       </c>
       <c r="G112" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H112" s="2">
         <v>6</v>
@@ -17051,8 +17621,9 @@
       <c r="AO112" s="3">
         <v>200</v>
       </c>
+      <c r="AP112" s="3"/>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" s="2" customFormat="1" spans="1:42">
       <c r="A113" s="3">
         <v>168007</v>
       </c>
@@ -17170,8 +17741,9 @@
       <c r="AO113" s="3">
         <v>7</v>
       </c>
+      <c r="AP113" s="3"/>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" s="2" customFormat="1" spans="1:42">
       <c r="A114" s="3">
         <v>169000</v>
       </c>
@@ -17289,8 +17861,9 @@
       <c r="AO114" s="3">
         <v>200</v>
       </c>
+      <c r="AP114" s="3"/>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" s="2" customFormat="1" spans="1:42">
       <c r="A115" s="3">
         <v>169001</v>
       </c>
@@ -17408,8 +17981,9 @@
       <c r="AO115" s="3">
         <v>200</v>
       </c>
+      <c r="AP115" s="3"/>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" s="2" customFormat="1" spans="1:42">
       <c r="A116" s="3">
         <v>169002</v>
       </c>
@@ -17527,8 +18101,9 @@
       <c r="AO116" s="3">
         <v>200</v>
       </c>
+      <c r="AP116" s="3"/>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" s="2" customFormat="1" spans="1:42">
       <c r="A117" s="3">
         <v>169003</v>
       </c>
@@ -17646,8 +18221,9 @@
       <c r="AO117" s="3">
         <v>200</v>
       </c>
+      <c r="AP117" s="3"/>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" s="2" customFormat="1" spans="1:42">
       <c r="A118" s="3">
         <v>169004</v>
       </c>
@@ -17765,8 +18341,9 @@
       <c r="AO118" s="3">
         <v>200</v>
       </c>
+      <c r="AP118" s="3"/>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" s="2" customFormat="1" spans="1:42">
       <c r="A119" s="3">
         <v>169005</v>
       </c>
@@ -17884,8 +18461,9 @@
       <c r="AO119" s="3">
         <v>200</v>
       </c>
+      <c r="AP119" s="3"/>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" s="2" customFormat="1" spans="1:42">
       <c r="A120" s="3">
         <v>169006</v>
       </c>
@@ -17905,7 +18483,7 @@
         <v>-1</v>
       </c>
       <c r="G120" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="H120" s="2">
         <v>6</v>
@@ -18003,8 +18581,9 @@
       <c r="AO120" s="3">
         <v>200</v>
       </c>
+      <c r="AP120" s="3"/>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" s="2" customFormat="1" spans="1:42">
       <c r="A121" s="3">
         <v>169007</v>
       </c>
@@ -18122,8 +18701,9 @@
       <c r="AO121" s="3">
         <v>7</v>
       </c>
+      <c r="AP121" s="3"/>
     </row>
-    <row r="122" spans="1:41" customFormat="1">
+    <row r="122" customFormat="1" spans="1:41">
       <c r="A122" s="39">
         <v>171006</v>
       </c>
@@ -18245,7 +18825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:41" customFormat="1">
+    <row r="123" customFormat="1" spans="1:41">
       <c r="A123" s="41">
         <v>172006</v>
       </c>
@@ -18367,7 +18947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:41" customFormat="1">
+    <row r="124" customFormat="1" spans="1:41">
       <c r="A124" s="39">
         <v>173006</v>
       </c>
@@ -18489,7 +19069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:41" customFormat="1">
+    <row r="125" customFormat="1" spans="1:41">
       <c r="A125" s="41">
         <v>174006</v>
       </c>
@@ -18611,7 +19191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:41" customFormat="1">
+    <row r="126" customFormat="1" spans="1:41">
       <c r="A126" s="39">
         <v>175006</v>
       </c>
@@ -18733,7 +19313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:41" customFormat="1">
+    <row r="127" customFormat="1" spans="1:41">
       <c r="A127" s="41">
         <v>176006</v>
       </c>
@@ -18855,7 +19435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:41" customFormat="1">
+    <row r="128" customFormat="1" spans="1:41">
       <c r="A128" s="12">
         <v>177006</v>
       </c>
@@ -18977,7 +19557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:42" customFormat="1">
+    <row r="129" customFormat="1" spans="1:41">
       <c r="A129" s="12">
         <v>178006</v>
       </c>
@@ -19099,7 +19679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:42" customFormat="1">
+    <row r="130" customFormat="1" spans="1:41">
       <c r="A130" s="12">
         <v>179006</v>
       </c>
@@ -19221,7 +19801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" s="2" customFormat="1" spans="1:42">
       <c r="A131" s="12">
         <v>181006</v>
       </c>
@@ -19345,8 +19925,9 @@
       <c r="AO131" s="2">
         <v>7</v>
       </c>
+      <c r="AP131" s="3"/>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" s="2" customFormat="1" spans="1:42">
       <c r="A132" s="12">
         <v>182006</v>
       </c>
@@ -19470,8 +20051,9 @@
       <c r="AO132" s="2">
         <v>7</v>
       </c>
+      <c r="AP132" s="3"/>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" s="2" customFormat="1" spans="1:42">
       <c r="A133" s="12">
         <v>184006</v>
       </c>
@@ -19595,8 +20177,9 @@
       <c r="AO133" s="2">
         <v>7</v>
       </c>
+      <c r="AP133" s="3"/>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" s="2" customFormat="1" spans="1:42">
       <c r="A134" s="12">
         <v>186006</v>
       </c>
@@ -19720,8 +20303,9 @@
       <c r="AO134" s="2">
         <v>200</v>
       </c>
+      <c r="AP134" s="3"/>
     </row>
-    <row r="135" spans="1:42">
+    <row r="135" s="2" customFormat="1" spans="1:42">
       <c r="A135" s="12">
         <v>187006</v>
       </c>
@@ -19845,8 +20429,9 @@
       <c r="AO135" s="2">
         <v>200</v>
       </c>
+      <c r="AP135" s="3"/>
     </row>
-    <row r="136" spans="1:42">
+    <row r="136" s="2" customFormat="1" spans="1:42">
       <c r="A136" s="12">
         <v>188006</v>
       </c>
@@ -19964,160 +20549,46 @@
       <c r="AO136" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:42" s="1" customFormat="1">
-      <c r="A137" s="12">
-        <v>180017</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E137" s="1">
-        <v>337</v>
-      </c>
-      <c r="F137" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="H137" s="1">
-        <v>6</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J137" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K137" s="1">
-        <v>0</v>
-      </c>
-      <c r="L137" s="1">
-        <v>0</v>
-      </c>
-      <c r="N137" s="16">
-        <v>1</v>
-      </c>
-      <c r="O137" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="R137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="S137" s="3">
-        <v>7</v>
-      </c>
-      <c r="T137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="U137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="V137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="W137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="X137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z137" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AD137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AH137" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="AI137" s="33">
-        <v>1</v>
-      </c>
-      <c r="AJ137" s="33">
-        <v>200</v>
-      </c>
-      <c r="AK137" s="33">
-        <v>200</v>
-      </c>
-      <c r="AL137" s="33">
-        <v>200</v>
-      </c>
-      <c r="AM137" s="33">
-        <v>200</v>
-      </c>
-      <c r="AN137" s="33">
-        <v>200</v>
-      </c>
-      <c r="AO137" s="33">
-        <v>200</v>
-      </c>
-      <c r="AP137" s="3"/>
+      <c r="AP136" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO136" xr:uid="{09F33BCD-C326-486D-8747-DEA59E8F7779}"/>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="202"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="202"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 技能概括，战斗中选择技能时显示</t>
         </r>
       </text>
@@ -43,11 +42,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗=等级*系数a1+系数b1</t>
         </r>
       </text>
@@ -57,11 +55,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 Administrator:
 消耗=等级*系数a1+系数b1</t>
         </r>
@@ -72,11 +69,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗1=等级*系数a1+系数b1</t>
         </r>
       </text>
@@ -86,11 +82,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 Administrator:
 消耗2=等级*系数a2+系数b2</t>
         </r>
@@ -101,11 +96,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
@@ -115,11 +109,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 消耗2=等级*系数a2+系数b2</t>
         </r>
       </text>
@@ -129,11 +122,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">选择目标类型 user:
+          <t>选择目标类型 user:
 480：选取敌人
 4127：选取自己方
 1：自己
@@ -161,11 +153,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 未开启时使用</t>
         </r>
       </text>
@@ -175,7 +166,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -191,11 +181,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 未开启时使用</t>
         </r>
       </text>
@@ -205,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="555">
   <si>
     <t>技能id</t>
   </si>
@@ -1565,16 +1554,16 @@
     <t>&lt;T t="魔王寨门派绝技，飞星流火，炎天炽地，以魔王之力摇天撼地，三界为之变色。”" c="ffd729ea"&gt;&lt;/T&gt;</t>
   </si>
   <si>
-    <t>强力法术攻击敌方2个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息1回合，休息状态下双防降低。</t>
-  </si>
-  <si>
-    <t>强力法术攻击敌方2个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息2回合，休息状态下双防降低。</t>
-  </si>
-  <si>
-    <t>强力法术攻击敌方2个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息3回合，休息状态下双防降低。</t>
-  </si>
-  <si>
-    <t>强力法术攻击敌方2个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的180%。使用后虚弱休息1回合，休息状态下双防降低。</t>
+    <t>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息1回合，休息状态下双防降低。</t>
+  </si>
+  <si>
+    <t>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息2回合，休息状态下双防降低。</t>
+  </si>
+  <si>
+    <t>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息3回合，休息状态下双防降低。</t>
+  </si>
+  <si>
+    <t>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的180%。使用后虚弱休息1回合，休息状态下双防降低。</t>
   </si>
   <si>
     <t>最高为五雷轰顶伤害的160%</t>
@@ -2081,31 +2070,115 @@
     <t>绝技</t>
   </si>
   <si>
-    <t>&lt;T t="大唐官府门派绝技，手中只一剑，却化作万道剑气飞向敌人，极少有人能在这样的攻势下幸免"&gt;&lt;/T&gt;&lt;T t="“这片名为战场的天空之下，即是我的领地，擅闯者必诛之！”" c="ffd729ea"&gt;&lt;/T&gt;</t>
+    <t>鹰击长空</t>
+  </si>
+  <si>
+    <t>锁魂判官</t>
+  </si>
+  <si>
+    <t>一元复始</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>&lt;T t="大唐官府门派绝技，手中只一剑，却化作万道剑气飞向敌人，极少有人能在这样的攻势下幸免" c="ff50321a"&gt;&lt;/T&gt;&lt;T t="“这片名为战场的天空之下，即是我的领地，擅闯者必诛之！”" c="ffd729ea"&gt;&lt;/T&gt;</t>
-  </si>
-  <si>
-    <t>鹰击长空</t>
-  </si>
-  <si>
-    <t>锁魂判官</t>
-  </si>
-  <si>
-    <t>使全体队友在2回合内免疫1次死亡，濒死瞬间回复生命值为生命上限的25%。使用后虚弱休息1回合，休息状态下双防降低。</t>
-  </si>
-  <si>
-    <t>一元复始</t>
-  </si>
-  <si>
     <t>&lt;T t="盘丝洞门派绝技。持续状态时会将一些法术攻击转移至对方随机队员。" c="ffd729ea"&gt;&lt;/T&gt;</t>
   </si>
   <si>
     <t>&lt;T t="女儿村门派绝技。使我方全体隐身。" c="ffd729ea"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>大唐孩子</t>
+  </si>
+  <si>
+    <t>召唤大唐孩子</t>
+  </si>
+  <si>
+    <t>召唤孩子</t>
+  </si>
+  <si>
+    <t>化生孩子</t>
+  </si>
+  <si>
+    <t>召唤化生孩子</t>
+  </si>
+  <si>
+    <t>魔王孩子</t>
+  </si>
+  <si>
+    <t>召唤魔王孩子</t>
+  </si>
+  <si>
+    <t>龙宫孩子</t>
+  </si>
+  <si>
+    <t>召唤龙宫孩子</t>
+  </si>
+  <si>
+    <t>普陀孩子</t>
+  </si>
+  <si>
+    <t>召唤普陀孩子</t>
+  </si>
+  <si>
+    <t>方寸孩子</t>
+  </si>
+  <si>
+    <t>召唤方寸孩子</t>
+  </si>
+  <si>
+    <t>月宫孩子</t>
+  </si>
+  <si>
+    <t>召唤月宫孩子</t>
+  </si>
+  <si>
+    <t>地府孩子</t>
+  </si>
+  <si>
+    <t>召唤地府孩子</t>
+  </si>
+  <si>
+    <t>凌波孩子</t>
+  </si>
+  <si>
+    <t>召唤凌波孩子</t>
+  </si>
+  <si>
+    <t>五庄孩子</t>
+  </si>
+  <si>
+    <t>召唤五庄孩子</t>
+  </si>
+  <si>
+    <t>盘丝孩子</t>
+  </si>
+  <si>
+    <t>召唤盘丝孩子</t>
+  </si>
+  <si>
+    <t>女儿孩子</t>
+  </si>
+  <si>
+    <t>召唤女儿孩子</t>
+  </si>
+  <si>
+    <t>无底孩子</t>
+  </si>
+  <si>
+    <t>召唤无底孩子</t>
+  </si>
+  <si>
+    <t>神木孩子</t>
+  </si>
+  <si>
+    <t>召唤神木孩子</t>
+  </si>
+  <si>
+    <t>狮驼孩子</t>
+  </si>
+  <si>
+    <t>召唤狮驼孩子</t>
   </si>
 </sst>
 </file>
@@ -2113,12 +2186,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2192,11 +2265,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2206,8 +2286,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2215,22 +2316,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2245,6 +2330,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -2252,9 +2360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2268,34 +2375,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2308,24 +2391,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2333,15 +2398,28 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF00FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2397,7 +2475,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,7 +2529,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,25 +2559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,25 +2577,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,85 +2631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2641,35 +2719,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2685,15 +2737,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2716,8 +2759,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2726,711 +2804,714 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3455,11 +3536,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3575,6 +3653,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3823,7 +3905,12 @@
     <cellStyle name="好 8" xfId="243"/>
     <cellStyle name="好 9" xfId="244"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4150,54 +4237,53 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP136"/>
+  <dimension ref="A1:AP151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="$A57:$XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="88.7416666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="60" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.4537037037037" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.1203703703704" style="3" customWidth="1"/>
+    <col min="4" max="4" width="63.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6944444444444" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.5833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.6583333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.6574074074074" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.4166666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="37.9166666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.2166666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.85833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.212962962963" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.86111111111111" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.3666666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.325" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.2833333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.725" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.3611111111111" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.3240740740741" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.287037037037" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.72222222222222" style="2" customWidth="1"/>
     <col min="17" max="17" width="33.3333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="71.125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.9083333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="45.4083333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="28.4666666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="25.6916666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25.825" style="2" customWidth="1"/>
+    <col min="18" max="18" width="71.1203703703704" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.9074074074074" style="3" customWidth="1"/>
+    <col min="20" max="20" width="45.4074074074074" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28.4722222222222" style="2" customWidth="1"/>
+    <col min="22" max="22" width="25.6944444444444" style="2" customWidth="1"/>
+    <col min="23" max="23" width="25.8240740740741" style="2" customWidth="1"/>
     <col min="24" max="24" width="28.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="67.625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="67.6296296296296" style="2" customWidth="1"/>
     <col min="26" max="26" width="69.1666666666667" style="4" customWidth="1"/>
     <col min="27" max="27" width="44.25" style="3" customWidth="1"/>
     <col min="28" max="28" width="104.75" style="3" customWidth="1"/>
-    <col min="29" max="29" width="39.625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="39.6296296296296" style="3" customWidth="1"/>
     <col min="30" max="34" width="28.5" style="3" customWidth="1"/>
     <col min="35" max="42" width="9" style="3"/>
     <col min="43" max="16384" width="9" style="2"/>
@@ -5527,7 +5613,7 @@
       </c>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A12" s="12">
         <v>120002</v>
       </c>
@@ -5647,7 +5733,7 @@
       </c>
       <c r="AP12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A13" s="12">
         <v>120003</v>
       </c>
@@ -5767,7 +5853,7 @@
       </c>
       <c r="AP13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A14" s="12">
         <v>120004</v>
       </c>
@@ -5887,7 +5973,7 @@
       </c>
       <c r="AP14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A15" s="12">
         <v>120005</v>
       </c>
@@ -6127,7 +6213,7 @@
       </c>
       <c r="AP16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A17" s="12">
         <v>120007</v>
       </c>
@@ -7125,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="24">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -7205,7 +7291,7 @@
       </c>
       <c r="AP25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A26" s="12">
         <v>140000</v>
       </c>
@@ -7445,7 +7531,7 @@
       </c>
       <c r="AP27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="28" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A28" s="12">
         <v>140002</v>
       </c>
@@ -7565,7 +7651,7 @@
       </c>
       <c r="AP28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="29" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A29" s="12">
         <v>140003</v>
       </c>
@@ -7685,7 +7771,7 @@
       </c>
       <c r="AP29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="30" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A30" s="12">
         <v>140004</v>
       </c>
@@ -8523,7 +8609,7 @@
       </c>
       <c r="AP36" s="3"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="37" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A37" s="12">
         <v>150003</v>
       </c>
@@ -9961,7 +10047,7 @@
       </c>
       <c r="AP48" s="3"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="27" spans="1:42">
+    <row r="49" s="1" customFormat="1" ht="28.8" spans="1:42">
       <c r="A49" s="12">
         <v>160007</v>
       </c>
@@ -11277,7 +11363,7 @@
       </c>
       <c r="AP59" s="3"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="60" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A60" s="12">
         <v>162002</v>
       </c>
@@ -11397,7 +11483,7 @@
       </c>
       <c r="AP60" s="3"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="61" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A61" s="12">
         <v>162003</v>
       </c>
@@ -11517,7 +11603,7 @@
       </c>
       <c r="AP61" s="3"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="62" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A62" s="12">
         <v>162004</v>
       </c>
@@ -11637,7 +11723,7 @@
       </c>
       <c r="AP62" s="3"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="63" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A63" s="12">
         <v>162005</v>
       </c>
@@ -11877,7 +11963,7 @@
       </c>
       <c r="AP64" s="3"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="27" spans="1:42">
+    <row r="65" s="1" customFormat="1" ht="28.8" spans="1:42">
       <c r="A65" s="12">
         <v>162007</v>
       </c>
@@ -12115,7 +12201,7 @@
       </c>
       <c r="AP66" s="3"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="67" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A67" s="12">
         <v>163001</v>
       </c>
@@ -12235,7 +12321,7 @@
       </c>
       <c r="AP67" s="3"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="68" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A68" s="12">
         <v>163002</v>
       </c>
@@ -12355,7 +12441,7 @@
       </c>
       <c r="AP68" s="3"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="69" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A69" s="12">
         <v>163003</v>
       </c>
@@ -12475,7 +12561,7 @@
       </c>
       <c r="AP69" s="3"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="70" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A70" s="12">
         <v>163004</v>
       </c>
@@ -12595,7 +12681,7 @@
       </c>
       <c r="AP70" s="3"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="71" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A71" s="12">
         <v>163005</v>
       </c>
@@ -12835,7 +12921,7 @@
       </c>
       <c r="AP72" s="3"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="17.25" spans="1:42">
+    <row r="73" s="1" customFormat="1" ht="15.6" spans="1:42">
       <c r="A73" s="12">
         <v>163007</v>
       </c>
@@ -18703,7 +18789,7 @@
       </c>
       <c r="AP121" s="3"/>
     </row>
-    <row r="122" customFormat="1" spans="1:41">
+    <row r="122" spans="1:41">
       <c r="A122" s="39">
         <v>171006</v>
       </c>
@@ -18713,119 +18799,155 @@
       <c r="C122" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>518</v>
+      <c r="D122" s="2" t="str">
+        <f>IF(D9="","",D9)</f>
+        <v>&lt;T t="大唐官府门派绝技，手中只一剑，却化作万道剑气飞向敌人，极少有人能在这样的攻势下幸免"&gt;&lt;/T&gt;&lt;T t="“这片名为战场的天空之下，即是我的领地，擅闯者必诛之！”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E122" s="2">
+        <f t="shared" ref="E122:G122" si="0">IF(E9="","",E9)</f>
         <v>162</v>
       </c>
       <c r="F122" s="2">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="G122" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>80</v>
+      <c r="I122" s="2" t="str">
+        <f>IF(I9="","",I9)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J122" s="2">
+        <f>IF(J9="","",J9)</f>
         <v>-1</v>
       </c>
       <c r="K122" s="2">
+        <f>IF(K9="","",K9)</f>
         <v>0</v>
       </c>
       <c r="L122" s="2">
+        <f>IF(L9="","",L9)</f>
         <v>0</v>
       </c>
       <c r="N122" s="2">
+        <f t="shared" ref="N122:AO122" si="1">IF(N9="","",N9)</f>
         <v>480</v>
       </c>
       <c r="O122" s="2">
-        <v>1</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q122" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="R122" s="2" t="s">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;T t="大唐官府门派绝技，手中只一剑，却化作万道剑气飞向敌人，极少有人能在这样的攻势下幸免" c="ff50321a"&gt;&lt;/T&gt;&lt;T t="“这片名为战场的天空之下，即是我的领地，擅闯者必诛之！”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
       </c>
       <c r="S122" s="2">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="T122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U122" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V122" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA122" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB122" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC122" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD122" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE122" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF122" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG122" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH122" s="2" t="s">
-        <v>87</v>
+      <c r="T122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="U122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息2回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="V122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息3回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="W122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="X122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="Y122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="Z122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>直接对目标发动5-9次攻击，自身生命越低攻击次数越多。伤害是普通攻击的50%，无法被防御和保护，使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="AA122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>每次造成普通攻击55%的伤害</v>
+      </c>
+      <c r="AC122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>每次造成普通攻击60%的伤害</v>
+      </c>
+      <c r="AD122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AE122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AF122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AG122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AH122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>每次造成普通攻击65%的伤害</v>
       </c>
       <c r="AI122" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AJ122" s="2">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AK122" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AL122" s="2">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AM122" s="2">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AN122" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AO122" s="2">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="123" customFormat="1" spans="1:41">
+    <row r="123" spans="1:41">
       <c r="A123" s="41">
         <v>172006</v>
       </c>
@@ -18835,363 +18957,471 @@
       <c r="C123" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>119</v>
+      <c r="D123" s="2" t="str">
+        <f>IF(D17="","",D17)</f>
+        <v>&lt;T t="方寸山门派绝技。相传三星洞中有古钟一座，其声响彻万里，神仙鬼怪听闻，无不心旌荡漾。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E123" s="2">
+        <f t="shared" ref="E123:G123" si="2">IF(E17="","",E17)</f>
         <v>341</v>
       </c>
       <c r="F123" s="2">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="G123" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>80</v>
+      <c r="I123" s="2" t="str">
+        <f>IF(I17="","",I17)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J123" s="2">
+        <f>IF(J17="","",J17)</f>
         <v>-1</v>
       </c>
       <c r="K123" s="2">
+        <f>IF(K17="","",K17)</f>
         <v>0</v>
       </c>
       <c r="L123" s="2">
+        <f>IF(L17="","",L17)</f>
         <v>0</v>
       </c>
       <c r="N123" s="2">
+        <f t="shared" ref="N123:AO123" si="3">IF(N17="","",N17)</f>
         <v>480</v>
       </c>
       <c r="O123" s="2">
-        <v>1</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q123" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R123" s="2" t="s">
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;T t="方寸山门派绝技。相传三星洞中有古钟一座，其声响彻万里，神仙鬼怪听闻，无不心旌荡漾。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>对敌方5个目标释放随机符咒，首目标必中，其他目标为基础命中率的30%。使用后休息一回合。</v>
       </c>
       <c r="S123" s="2">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="T123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="U123" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V123" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y123" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z123" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH123" s="2" t="s">
-        <v>124</v>
+      <c r="T123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>召唤古钟庇护队友，使其免疫大部分的伤害，当己方队友少于对方时，多增加一个目标，且免疫系数增加25%，持续2回合。使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="U123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>召唤守护圣盾庇护队友，使其免疫大部分的伤害，当己方队友少于对方时，多增加一个目标，且免疫系数增加25%，持续2回合。使用后虚弱休息2回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="V123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>召唤守护圣盾庇护队友，使其免疫大部分的伤害，当己方队友少于对方时，多增加一个目标，且免疫系数增加25%，持续2回合。使用后虚弱休息3回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="W123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>召唤古钟庇护队友，使其免疫大部分的伤害，当己方队友少于对方时，多增加一个目标，且免疫系数增加25%，持续2回合。使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="X123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>召唤古钟庇护队友，使其免疫大部分的伤害，当己方队友少于对方时，多增加一个目标，且免疫系数增加25%，持续2回合。使用后虚弱休息1回合，虚弱休息状态下双防降低。</v>
+      </c>
+      <c r="Y123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>对敌方5个目标释放随机符咒，首目标必中，其他目标为基础命中率的30%。使用后休息一回合。</v>
+      </c>
+      <c r="Z123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>对敌方5个目标释放随机符咒，首目标必中，其他目标为基础命中率的30%。使用后休息一回合。</v>
+      </c>
+      <c r="AA123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
+      </c>
+      <c r="AB123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
+      </c>
+      <c r="AC123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
+      </c>
+      <c r="AD123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
+      </c>
+      <c r="AE123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
+      </c>
+      <c r="AF123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
+      </c>
+      <c r="AG123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
+      </c>
+      <c r="AH123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2级 命中率提升5%； 3级 命中率提升5%。</v>
       </c>
       <c r="AI123" s="2">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ123" s="2">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AK123" s="2">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AL123" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AM123" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AN123" s="2">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AO123" s="2">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="124" customFormat="1" spans="1:41">
+    <row r="124" spans="1:41">
       <c r="A124" s="39">
         <v>173006</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C124" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>166</v>
+      <c r="D124" s="2" t="str">
+        <f>IF(D25="","",D25)</f>
+        <v>&lt;T t="“狮驼岭门派绝技，魔兽能在极度愤怒的情况下，化身上古巨鹰，对敌人发动毁灭性的群体攻击。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E124" s="2">
+        <f t="shared" ref="E124:G124" si="4">IF(E25="","",E25)</f>
         <v>302</v>
       </c>
       <c r="F124" s="2">
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="G124" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>80</v>
+      <c r="I124" s="2" t="str">
+        <f>IF(I25="","",I25)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J124" s="2">
+        <f>IF(J25="","",J25)</f>
         <v>-1</v>
       </c>
       <c r="K124" s="2">
+        <f>IF(K25="","",K25)</f>
         <v>0</v>
       </c>
       <c r="L124" s="2">
+        <f>IF(L25="","",L25)</f>
         <v>0</v>
       </c>
       <c r="N124" s="2">
+        <f t="shared" ref="N124:AO124" si="5">IF(N25="","",N25)</f>
         <v>480</v>
       </c>
       <c r="O124" s="2">
-        <v>1</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q124" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R124" s="2" t="s">
-        <v>167</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;T t="“狮驼岭门派绝技，魔兽能在极度愤怒的情况下，化身上古巨鹰，对敌人发动毁灭性的群体攻击。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用猎鹰打击并眩晕目标，固定持续2回合，不能被药和技能净化但可以被特技进化。当己方队友少于对方时，打击目标数增加，使用后虚弱休息1回合，休息状态下双防降低。</v>
       </c>
       <c r="S124" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="T124" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="U124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="V124" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="W124" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="X124" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y124" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z124" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA124" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB124" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC124" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD124" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE124" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF124" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG124" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH124" s="2" t="s">
-        <v>172</v>
+      <c r="T124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用猎鹰打击并眩晕目标，固定持续2回合，不能被药和技能净化但可以被特技进化。当己方队友少于对方时，打击目标数增加，使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="U124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用奇美拉打击并眩晕目标，固定持续2回合，不能被药剂和牧师净化但可以被特技净化。当己方队友少于对方时，打击目标数增加。使用后虚弱休息2回合，休息状态下双防降低。</v>
+      </c>
+      <c r="V124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用奇美拉打击并眩晕目标，固定持续2回合，不能被药剂和牧师净化但可以被特技净化。当己方队友少于对方时，打击目标数增加。使用后虚弱休息3回合，休息状态下双防降低。</v>
+      </c>
+      <c r="W124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用猎鹰打击并眩晕目标，固定持续2回合，不能被药和技能净化但可以被特技进化。当己方队友少于对方时，打击目标数增加，使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="X124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用猎鹰打击并眩晕目标，固定持续2回合，不能被药和技能净化但可以被特技进化。当己方队友少于对方时，打击目标数增加，使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Y124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用猎鹰打击并眩晕目标，固定持续2回合，不能被药和技能净化但可以被特技进化。当己方队友少于对方时，打击目标数增加，使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Z124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>利用猎鹰打击并眩晕目标，固定持续2回合，不能被药和技能净化但可以被特技进化。当己方队友少于对方时，打击目标数增加，使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="AA124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>最多打击3个目标</v>
+      </c>
+      <c r="AC124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>最多打击4个目标</v>
+      </c>
+      <c r="AD124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>额外随机打击5个目标</v>
+      </c>
+      <c r="AE124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>额外随机打击5个目标</v>
+      </c>
+      <c r="AF124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>额外随机打击5个目标</v>
+      </c>
+      <c r="AG124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>额外随机打击5个目标</v>
+      </c>
+      <c r="AH124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>额外随机打击5个目标</v>
       </c>
       <c r="AI124" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AJ124" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AK124" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AL124" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AM124" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AN124" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AO124" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="125" customFormat="1" spans="1:41">
+    <row r="125" spans="1:41">
       <c r="A125" s="41">
         <v>174006</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C125" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>205</v>
+      <c r="D125" s="2" t="str">
+        <f>IF(D33="","",D33)</f>
+        <v>&lt;T t=" 阴曹地府门派绝技。喜荣华正好，恨无常又到。地府判官专司锁魂判罪。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E125" s="2">
+        <f t="shared" ref="E125:G125" si="6">IF(E33="","",E33)</f>
         <v>358</v>
       </c>
       <c r="F125" s="2">
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="G125" s="2">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>80</v>
+      <c r="I125" s="2" t="str">
+        <f>IF(I33="","",I33)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J125" s="2">
+        <f>IF(J33="","",J33)</f>
         <v>-1</v>
       </c>
       <c r="K125" s="2">
+        <f>IF(K33="","",K33)</f>
         <v>0</v>
       </c>
       <c r="L125" s="2">
+        <f>IF(L33="","",L33)</f>
         <v>0</v>
       </c>
       <c r="N125" s="2">
+        <f t="shared" ref="N125:AO125" si="7">IF(N33="","",N33)</f>
         <v>4127</v>
       </c>
       <c r="O125" s="2">
-        <v>1</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q125" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="R125" s="2" t="s">
-        <v>206</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;T t=" 阴曹地府门派绝技。喜荣华正好，恨无常又到。地府判官专司锁魂判罪。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>封锁敌人魂魄，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息1回合，休息状态下双防降低。</v>
       </c>
       <c r="S125" s="2">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="T125" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U125" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="V125" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="W125" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="X125" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y125" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z125" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA125" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB125" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC125" s="2" t="s">
-        <v>211</v>
+      <c r="T125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>封锁敌人魂魄，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="U125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>让敌方单位进入灵魂禁锢状态，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息2回合，休息状态下双防降低。</v>
+      </c>
+      <c r="V125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>让敌方单位进入灵魂禁锢状态，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息3回合，休息状态下双防降低。</v>
+      </c>
+      <c r="W125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>封锁敌人魂魄，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="X125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>封锁敌人魂魄，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Y125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>封锁敌人魂魄，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Z125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>封锁敌人魂魄，使其4回合内无法被复活，并减少目标双防御，对方魔法越少减少双防越多。pve对怪物额外造成大量伤害。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="AA125" s="2" t="str">
+        <f>IF(AB33="","",AB33)</f>
+        <v>最高减少25%双防</v>
+      </c>
+      <c r="AB125" s="2" t="str">
+        <f>IF(AC33="","",AC33)</f>
+        <v>最高减少30%双防</v>
+      </c>
+      <c r="AC125" s="2" t="str">
+        <f>IF(AD33="","",AD33)</f>
+        <v>最高减少35%双防</v>
       </c>
       <c r="AD125" s="2" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AE125" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF125" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG125" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH125" s="2" t="s">
-        <v>211</v>
+      <c r="AE125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>最高减少35%双防</v>
+      </c>
+      <c r="AF125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>最高减少35%双防</v>
+      </c>
+      <c r="AG125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>最高减少35%双防</v>
+      </c>
+      <c r="AH125" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>最高减少35%双防</v>
       </c>
       <c r="AI125" s="2">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AJ125" s="2">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AK125" s="2">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AL125" s="2">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AM125" s="2">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AN125" s="2">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AO125" s="2">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="126" customFormat="1" spans="1:41">
+    <row r="126" spans="1:41">
       <c r="A126" s="39">
         <v>175006</v>
       </c>
@@ -19201,119 +19431,155 @@
       <c r="C126" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>245</v>
+      <c r="D126" s="2" t="str">
+        <f>IF(D41="","",D41)</f>
+        <v>&lt;T t="龙宫门派绝技，召唤上古魔龙化身，掀起滔天魔浪，气海空虚之人无法抵抗这声势浩大的一击。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E126" s="2">
+        <f t="shared" ref="E126:G126" si="8">IF(E41="","",E41)</f>
         <v>211</v>
       </c>
       <c r="F126" s="2">
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="G126" s="2">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>80</v>
+      <c r="I126" s="2" t="str">
+        <f>IF(I41="","",I41)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J126" s="2">
+        <f>IF(J41="","",J41)</f>
         <v>-1</v>
       </c>
       <c r="K126" s="2">
+        <f>IF(K41="","",K41)</f>
         <v>0</v>
       </c>
       <c r="L126" s="2">
+        <f>IF(L41="","",L41)</f>
         <v>0</v>
       </c>
       <c r="N126" s="2">
+        <f t="shared" ref="N126:AO126" si="9">IF(N41="","",N41)</f>
         <v>480</v>
       </c>
       <c r="O126" s="2">
-        <v>1</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q126" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R126" s="2" t="s">
-        <v>246</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;T t="龙宫门派绝技，召唤上古魔龙化身，掀起滔天魔浪，气海空虚之人无法抵抗这声势浩大的一击。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对7个敌方单位造成法术伤害，目标已损失魔法值越多，伤害越高。最高为龙卷雨击伤害的200％。使用后休息一回合。 双防降低</v>
       </c>
       <c r="S126" s="2">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="T126" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="U126" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="V126" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="W126" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y126" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z126" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA126" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB126" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC126" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD126" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE126" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF126" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG126" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH126" s="2" t="s">
-        <v>252</v>
+      <c r="T126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对7个敌方单位造成法术伤害，目标已损失魔法值越多，伤害越高。最高为龙卷雨击伤害的200％。使用后休息一回合。 双防降低</v>
+      </c>
+      <c r="U126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对敌方7个单位造成极端法术伤害，目标剩余的魔法值越少，伤害越高，最高为龙卷雨击伤害的200%。使用后虚弱休息2回合，休息状态下双防降低。</v>
+      </c>
+      <c r="V126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对敌方7个单位造成极端法术伤害，目标剩余的魔法值越少，伤害越高，最高为龙卷雨击伤害的200%。使用后虚弱休息3回合，休息状态下双防降低。</v>
+      </c>
+      <c r="W126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对敌方7个单位造成极端法术伤害，目标剩余的魔法值越少，伤害越高，最高为龙卷雨击伤害的260%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="X126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对7个敌方单位造成法术伤害，目标已损失魔法值越多，伤害越高。最高为龙卷雨击伤害的200％。使用后休息一回合。 双防降低</v>
+      </c>
+      <c r="Y126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对7个敌方单位造成法术伤害，目标已损失魔法值越多，伤害越高。最高为龙卷雨击伤害的200％。使用后休息一回合。 双防降低</v>
+      </c>
+      <c r="Z126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>对7个敌方单位造成法术伤害，目标已损失魔法值越多，伤害越高。最高为龙卷雨击伤害的200％。使用后休息一回合。 双防降低</v>
+      </c>
+      <c r="AA126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>最高为龙卷雨击伤害的220%</v>
+      </c>
+      <c r="AC126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>最高为龙卷雨击伤害的240%</v>
+      </c>
+      <c r="AD126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>最高为龙卷雨击伤害的260%</v>
+      </c>
+      <c r="AE126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>最高为龙卷雨击伤害的260%</v>
+      </c>
+      <c r="AF126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>最高为龙卷雨击伤害的260%</v>
+      </c>
+      <c r="AG126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>最高为龙卷雨击伤害的260%</v>
+      </c>
+      <c r="AH126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>最高为龙卷雨击伤害的260%</v>
       </c>
       <c r="AI126" s="2">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AJ126" s="2">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AK126" s="2">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AL126" s="2">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AM126" s="2">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AN126" s="2">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AO126" s="2">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
-    <row r="127" customFormat="1" spans="1:41">
+    <row r="127" spans="1:41">
       <c r="A127" s="41">
         <v>176006</v>
       </c>
@@ -19323,119 +19589,155 @@
       <c r="C127" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>291</v>
+      <c r="D127" s="2" t="str">
+        <f>IF(D49="","",D49)</f>
+        <v>&lt;T t="普陀山门派绝技。观世音以尘世为苦海，一慈悲救众生。曾发宏愿，让莲花开满人间。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E127" s="2">
+        <f t="shared" ref="E127:G127" si="10">IF(E49="","",E49)</f>
         <v>203</v>
       </c>
       <c r="F127" s="2">
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="G127" s="2">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>80</v>
+      <c r="I127" s="2" t="str">
+        <f>IF(I49="","",I49)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J127" s="2">
+        <f>IF(J49="","",J49)</f>
         <v>-1</v>
       </c>
       <c r="K127" s="2">
+        <f>IF(K49="","",K49)</f>
         <v>0</v>
       </c>
       <c r="L127" s="2">
+        <f>IF(L49="","",L49)</f>
         <v>0</v>
       </c>
       <c r="N127" s="2">
+        <f t="shared" ref="N127:AO127" si="11">IF(N49="","",N49)</f>
         <v>4127</v>
       </c>
       <c r="O127" s="2">
-        <v>1</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="R127" s="2" t="s">
-        <v>523</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;T t="普陀山门派绝技。观世音以尘世为苦海，一慈悲救众生。曾发宏愿，让莲花开满人间。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内免疫1次死亡，濒死瞬间回复生命值为生命上限的25%。使用后虚弱休息1回合，休息状态下双防降低。</v>
       </c>
       <c r="S127" s="2">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="T127" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="V127" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="W127" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="X127" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y127" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z127" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA127" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB127" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC127" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD127" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE127" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF127" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG127" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH127" s="2" t="s">
-        <v>299</v>
+      <c r="T127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内死亡时可触发1次涅槃效果，免疫1次死亡，濒死瞬间回复生命值为生命上限的25%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="U127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内死亡时可触发1次涅槃效果，免疫1次死亡，濒死瞬间回复生命值为生命上限的25%。使用后虚弱休息2回合，休息状态下双防降低。</v>
+      </c>
+      <c r="V127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内死亡时可触发1次涅槃效果，免疫1次死亡，濒死瞬间回复生命值为生命上限的25%。使用后虚弱休息3回合，休息状态下双防降低。</v>
+      </c>
+      <c r="W127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内死亡时可触发1次涅槃效果，免疫1次死亡，濒死瞬间回复生命值为生命上限的55%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="X127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内死亡时可触发1次涅槃效果，免疫1次死亡，濒死瞬间回复生命值为生命上限的55%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Y127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内死亡时可触发1次涅槃效果，免疫1次死亡，濒死瞬间回复生命值为生命上限的55%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Z127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>使全体队友在2回合内死亡时可触发1次涅槃效果，免疫1次死亡，濒死瞬间回复生命值为生命上限的55%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="AA127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>回复生命系数35%</v>
+      </c>
+      <c r="AC127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>回复生命系数45%</v>
+      </c>
+      <c r="AD127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>回复生命系数55%</v>
+      </c>
+      <c r="AE127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>回复生命系数55%</v>
+      </c>
+      <c r="AF127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>回复生命系数55%</v>
+      </c>
+      <c r="AG127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>回复生命系数55%</v>
+      </c>
+      <c r="AH127" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>回复生命系数55%</v>
       </c>
       <c r="AI127" s="2">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AJ127" s="2">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AK127" s="2">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AL127" s="2">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AM127" s="2">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AN127" s="2">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AO127" s="2">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
-    <row r="128" customFormat="1" spans="1:41">
+    <row r="128" spans="1:41">
       <c r="A128" s="12">
         <v>177006</v>
       </c>
@@ -19445,119 +19747,155 @@
       <c r="C128" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>345</v>
+      <c r="D128" s="2" t="str">
+        <f>IF(D57="","",D57)</f>
+        <v>&lt;T t="魔王寨门派绝技，飞星流火，炎天炽地，以魔王之力摇天撼地，三界为之变色。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E128" s="2">
+        <f t="shared" ref="E128:G128" si="12">IF(E57="","",E57)</f>
         <v>321</v>
       </c>
       <c r="F128" s="2">
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="G128" s="2">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>80</v>
+      <c r="I128" s="2" t="str">
+        <f>IF(I57="","",I57)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J128" s="2">
+        <f>IF(J57="","",J57)</f>
         <v>-1</v>
       </c>
       <c r="K128" s="2">
+        <f>IF(K57="","",K57)</f>
         <v>0</v>
       </c>
       <c r="L128" s="2">
+        <f>IF(L57="","",L57)</f>
         <v>0</v>
       </c>
       <c r="N128" s="2">
+        <f t="shared" ref="N128:AO128" si="13">IF(N57="","",N57)</f>
         <v>480</v>
       </c>
       <c r="O128" s="2">
-        <v>1</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q128" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="R128" s="2" t="s">
-        <v>346</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Q128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;T t="魔王寨门派绝技，飞星流火，炎天炽地，以魔王之力摇天撼地，三界为之变色。”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息1回合，休息状态下双防降低。</v>
       </c>
       <c r="S128" s="2">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="T128" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="U128" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="V128" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="W128" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y128" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z128" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA128" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB128" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC128" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD128" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE128" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF128" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG128" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH128" s="2" t="s">
-        <v>352</v>
+      <c r="T128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="U128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息2回合，休息状态下双防降低。</v>
+      </c>
+      <c r="V128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息3回合，休息状态下双防降低。</v>
+      </c>
+      <c r="W128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的180%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="X128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Y128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="Z128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>强力法术攻击敌方1个单位，血量越少伤害越高，最高为正常五雷轰顶伤害的150%。使用后虚弱休息1回合，休息状态下双防降低。</v>
+      </c>
+      <c r="AA128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AB128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>最高为五雷轰顶伤害的160%</v>
+      </c>
+      <c r="AC128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>最高为五雷轰顶伤害的170%</v>
+      </c>
+      <c r="AD128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>最高为五雷轰顶伤害的180%</v>
+      </c>
+      <c r="AE128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>最高为五雷轰顶伤害的180%</v>
+      </c>
+      <c r="AF128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>最高为五雷轰顶伤害的180%</v>
+      </c>
+      <c r="AG128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>最高为五雷轰顶伤害的180%</v>
+      </c>
+      <c r="AH128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>最高为五雷轰顶伤害的180%</v>
       </c>
       <c r="AI128" s="2">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AJ128" s="2">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AK128" s="2">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AL128" s="2">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AM128" s="2">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AN128" s="2">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AO128" s="2">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
     </row>
-    <row r="129" customFormat="1" spans="1:41">
+    <row r="129" spans="1:41">
       <c r="A129" s="12">
         <v>178006</v>
       </c>
@@ -19567,237 +19905,309 @@
       <c r="C129" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>378</v>
+      <c r="D129" s="2" t="str">
+        <f>IF(D65="","",D65)</f>
+        <v>&lt;T t="月宫门派绝技。在时之月的清辉中展露凛冽的身姿，如雪亮的刃芒直刺四方，不负广寒清秋”" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E129" s="2">
+        <f t="shared" ref="E129:G129" si="14">IF(E65="","",E65)</f>
         <v>330</v>
       </c>
       <c r="F129" s="2">
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="G129" s="2">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
       </c>
-      <c r="I129" s="2" t="s">
-        <v>80</v>
+      <c r="I129" s="2" t="str">
+        <f>IF(I65="","",I65)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J129" s="2">
+        <f>IF(J65="","",J65)</f>
         <v>-1</v>
       </c>
       <c r="K129" s="2">
+        <f>IF(K65="","",K65)</f>
         <v>0</v>
       </c>
       <c r="L129" s="2">
+        <f>IF(L65="","",L65)</f>
         <v>0</v>
       </c>
       <c r="N129" s="2">
+        <f t="shared" ref="N129:AO129" si="15">IF(N65="","",N65)</f>
         <v>480</v>
       </c>
       <c r="O129" s="2">
-        <v>1</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q129" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="R129" s="2" t="s">
-        <v>379</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Q129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>&lt;T t="月宫门派绝技。在时之月的清辉中展露凛冽的身姿，如雪亮的刃芒直刺四方，不负广寒清秋”" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的50%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息1回合，虚弱休息状态下双防降低</v>
       </c>
       <c r="S129" s="2">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="T129" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="U129" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="V129" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="W129" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="X129" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y129" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z129" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA129" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB129" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC129" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD129" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE129" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF129" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG129" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH129" s="2" t="s">
-        <v>87</v>
+      <c r="T129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的50%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息1回合，虚弱休息状态下双防降低</v>
+      </c>
+      <c r="U129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的50%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息2回合，虚弱休息状态下双防降低</v>
+      </c>
+      <c r="V129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的50%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息3回合，虚弱休息状态下双防降低</v>
+      </c>
+      <c r="W129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的65%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息1回合，虚弱休息状态下双防降低</v>
+      </c>
+      <c r="X129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的65%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息1回合，虚弱休息状态下双防降低</v>
+      </c>
+      <c r="Y129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的65%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息1回合，虚弱休息状态下双防降低</v>
+      </c>
+      <c r="Z129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>对敌方单位随机发动7连击，除首目标外每下独立随机目标，伤害系数为正常伤害的65%，每消耗一个连击点追加两次连击，最多使用3个连击点，使用后虚弱休息1回合，虚弱休息状态下双防降低</v>
+      </c>
+      <c r="AA129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>每次造成普通攻击55%的伤害</v>
+      </c>
+      <c r="AC129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>每次造成普通攻击60%的伤害</v>
+      </c>
+      <c r="AD129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AE129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AF129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AG129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>每次造成普通攻击65%的伤害</v>
+      </c>
+      <c r="AH129" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>每次造成普通攻击65%的伤害</v>
       </c>
       <c r="AI129" s="2">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AJ129" s="2">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AK129" s="2">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AL129" s="2">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AM129" s="2">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AN129" s="2">
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AO129" s="2">
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
     </row>
-    <row r="130" customFormat="1" spans="1:41">
+    <row r="130" spans="1:41">
       <c r="A130" s="12">
         <v>179006</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>411</v>
+      <c r="D130" s="2" t="str">
+        <f>IF(D73="","",D73)</f>
+        <v>&lt;T t="化生寺门派绝技。在强大的佛法庇佑下，气入丹田六神相通，恢复到绝佳的状态。" c="ffd729ea"&gt;&lt;/T&gt;</v>
       </c>
       <c r="E130" s="2">
+        <f t="shared" ref="E130:G130" si="16">IF(E73="","",E73)</f>
         <v>339</v>
       </c>
       <c r="F130" s="2">
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="G130" s="2">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>80</v>
+      <c r="I130" s="2" t="str">
+        <f>IF(I73="","",I73)</f>
+        <v>消耗：$parameter1$愤怒</v>
       </c>
       <c r="J130" s="2">
+        <f>IF(J73="","",J73)</f>
         <v>-1</v>
       </c>
       <c r="K130" s="2">
+        <f>IF(K73="","",K73)</f>
         <v>0</v>
       </c>
       <c r="L130" s="2">
+        <f>IF(L73="","",L73)</f>
         <v>0</v>
       </c>
       <c r="N130" s="2">
+        <f t="shared" ref="N130:AO130" si="17">IF(N73="","",N73)</f>
         <v>480</v>
       </c>
       <c r="O130" s="2">
-        <v>1</v>
-      </c>
-      <c r="P130" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q130" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="R130" s="2" t="s">
-        <v>412</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="P130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Q130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;T t="化生寺门派绝技。在强大的佛法庇佑下，气入丹田六神相通，恢复到绝佳的状态。" c="ffd729ea"&gt;&lt;/T&gt;</v>
+      </c>
+      <c r="R130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
       </c>
       <c r="S130" s="2">
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="T130" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="U130" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="V130" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="W130" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="X130" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y130" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z130" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA130" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB130" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC130" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD130" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE130" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AF130" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG130" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH130" s="2" t="s">
-        <v>413</v>
+      <c r="T130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
+      </c>
+      <c r="U130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
+      </c>
+      <c r="V130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
+      </c>
+      <c r="W130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
+      </c>
+      <c r="X130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
+      </c>
+      <c r="Y130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
+      </c>
+      <c r="Z130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v> 回复1个友方目标大量气血并清除异常状态，增加目标20点愤怒，无论目标是否倒地均可使用。使用后休息一回合。</v>
+      </c>
+      <c r="AA130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
+      </c>
+      <c r="AB130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
+      </c>
+      <c r="AC130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
+      </c>
+      <c r="AD130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
+      </c>
+      <c r="AE130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
+      </c>
+      <c r="AF130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
+      </c>
+      <c r="AG130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
+      </c>
+      <c r="AH130" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2级 使用后恢复目标的愤怒；3级 提升恢复的愤怒点数</v>
       </c>
       <c r="AI130" s="2">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AJ130" s="2">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AK130" s="2">
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AL130" s="2">
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AM130" s="2">
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="AN130" s="2">
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="AO130" s="2">
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
     </row>
@@ -19839,7 +20249,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N131" s="2">
         <v>4127</v>
@@ -19848,7 +20258,7 @@
         <v>1</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>429</v>
@@ -19881,7 +20291,7 @@
         <v>429</v>
       </c>
       <c r="AA131" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AB131" s="2" t="s">
         <v>85</v>
@@ -19965,7 +20375,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N132" s="2">
         <v>4127</v>
@@ -19974,7 +20384,7 @@
         <v>1</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>448</v>
@@ -20007,7 +20417,7 @@
         <v>448</v>
       </c>
       <c r="AA132" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AB132" s="2" t="s">
         <v>85</v>
@@ -20064,7 +20474,7 @@
         <v>517</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E133" s="2">
         <v>162</v>
@@ -20091,7 +20501,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N133" s="2">
         <v>4127</v>
@@ -20100,40 +20510,40 @@
         <v>1</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="S133" s="2">
         <v>8</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="U133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="V133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="W133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Y133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Z133" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AA133" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AB133" s="2" t="s">
         <v>85</v>
@@ -20217,7 +20627,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N134" s="2">
         <v>1</v>
@@ -20226,7 +20636,7 @@
         <v>1</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>481</v>
@@ -20343,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N135" s="2">
         <v>4127</v>
@@ -20352,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q135" s="2" t="s">
         <v>499</v>
@@ -20442,7 +20852,7 @@
         <v>514</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E136" s="2">
         <v>162</v>
@@ -20550,6 +20960,1806 @@
         <v>7</v>
       </c>
       <c r="AP136" s="3"/>
+    </row>
+    <row r="137" s="2" customFormat="1" spans="1:42">
+      <c r="A137" s="45">
+        <v>170000</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="D137" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="E137" s="2">
+        <v>394</v>
+      </c>
+      <c r="F137" s="2">
+        <v>100</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H137" s="2">
+        <v>200</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J137" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K137" s="2">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2">
+        <v>0</v>
+      </c>
+      <c r="N137" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O137" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S137" s="3">
+        <v>8</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI137" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ137" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK137" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL137" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM137" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN137" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO137" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP137" s="3"/>
+    </row>
+    <row r="138" s="2" customFormat="1" spans="1:42">
+      <c r="A138" s="45">
+        <v>170001</v>
+      </c>
+      <c r="B138" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="C138" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="D138" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="E138" s="2">
+        <v>394</v>
+      </c>
+      <c r="F138" s="2">
+        <v>100</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H138" s="2">
+        <v>200</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J138" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K138" s="2">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <v>0</v>
+      </c>
+      <c r="N138" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O138" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S138" s="3">
+        <v>8</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI138" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK138" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL138" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM138" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN138" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO138" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP138" s="3"/>
+    </row>
+    <row r="139" s="2" customFormat="1" spans="1:42">
+      <c r="A139" s="45">
+        <v>170002</v>
+      </c>
+      <c r="B139" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="C139" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="D139" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="E139" s="2">
+        <v>394</v>
+      </c>
+      <c r="F139" s="2">
+        <v>100</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H139" s="2">
+        <v>200</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K139" s="2">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2">
+        <v>0</v>
+      </c>
+      <c r="N139" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O139" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S139" s="3">
+        <v>8</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH139" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI139" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ139" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK139" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL139" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM139" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN139" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO139" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP139" s="3"/>
+    </row>
+    <row r="140" s="2" customFormat="1" spans="1:42">
+      <c r="A140" s="45">
+        <v>170003</v>
+      </c>
+      <c r="B140" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="C140" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="D140" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E140" s="2">
+        <v>394</v>
+      </c>
+      <c r="F140" s="2">
+        <v>100</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H140" s="2">
+        <v>200</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K140" s="2">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2">
+        <v>0</v>
+      </c>
+      <c r="N140" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O140" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S140" s="3">
+        <v>8</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI140" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ140" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK140" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL140" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM140" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN140" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO140" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP140" s="3"/>
+    </row>
+    <row r="141" s="2" customFormat="1" spans="1:42">
+      <c r="A141" s="45">
+        <v>170004</v>
+      </c>
+      <c r="B141" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="C141" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="D141" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="E141" s="2">
+        <v>394</v>
+      </c>
+      <c r="F141" s="2">
+        <v>100</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H141" s="2">
+        <v>200</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J141" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K141" s="2">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2">
+        <v>0</v>
+      </c>
+      <c r="N141" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O141" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S141" s="3">
+        <v>8</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH141" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI141" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ141" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK141" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL141" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM141" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN141" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO141" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP141" s="3"/>
+    </row>
+    <row r="142" s="2" customFormat="1" spans="1:42">
+      <c r="A142" s="45">
+        <v>170005</v>
+      </c>
+      <c r="B142" s="46" t="s">
+        <v>535</v>
+      </c>
+      <c r="C142" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="D142" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="E142" s="2">
+        <v>394</v>
+      </c>
+      <c r="F142" s="2">
+        <v>100</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H142" s="2">
+        <v>200</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K142" s="2">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0</v>
+      </c>
+      <c r="N142" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O142" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S142" s="3">
+        <v>8</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI142" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ142" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK142" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL142" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM142" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN142" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO142" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP142" s="3"/>
+    </row>
+    <row r="143" s="2" customFormat="1" spans="1:42">
+      <c r="A143" s="45">
+        <v>170006</v>
+      </c>
+      <c r="B143" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="D143" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E143" s="2">
+        <v>394</v>
+      </c>
+      <c r="F143" s="2">
+        <v>100</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H143" s="2">
+        <v>200</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J143" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K143" s="2">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0</v>
+      </c>
+      <c r="N143" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O143" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S143" s="3">
+        <v>8</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI143" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ143" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK143" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL143" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM143" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN143" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO143" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP143" s="3"/>
+    </row>
+    <row r="144" s="2" customFormat="1" spans="1:42">
+      <c r="A144" s="45">
+        <v>170007</v>
+      </c>
+      <c r="B144" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C144" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="D144" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="E144" s="2">
+        <v>394</v>
+      </c>
+      <c r="F144" s="2">
+        <v>100</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H144" s="2">
+        <v>200</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K144" s="2">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2">
+        <v>0</v>
+      </c>
+      <c r="N144" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O144" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S144" s="3">
+        <v>8</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH144" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI144" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ144" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK144" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL144" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM144" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN144" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO144" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP144" s="3"/>
+    </row>
+    <row r="145" s="2" customFormat="1" spans="1:42">
+      <c r="A145" s="45">
+        <v>170008</v>
+      </c>
+      <c r="B145" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="D145" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="E145" s="2">
+        <v>394</v>
+      </c>
+      <c r="F145" s="2">
+        <v>100</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H145" s="2">
+        <v>200</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J145" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K145" s="2">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2">
+        <v>0</v>
+      </c>
+      <c r="N145" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O145" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S145" s="3">
+        <v>8</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI145" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ145" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK145" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL145" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM145" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN145" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO145" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP145" s="3"/>
+    </row>
+    <row r="146" s="2" customFormat="1" spans="1:42">
+      <c r="A146" s="45">
+        <v>170009</v>
+      </c>
+      <c r="B146" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="C146" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="D146" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="E146" s="2">
+        <v>394</v>
+      </c>
+      <c r="F146" s="2">
+        <v>100</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H146" s="2">
+        <v>200</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J146" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K146" s="2">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2">
+        <v>0</v>
+      </c>
+      <c r="N146" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O146" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S146" s="3">
+        <v>8</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI146" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ146" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK146" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL146" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM146" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN146" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO146" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP146" s="3"/>
+    </row>
+    <row r="147" s="2" customFormat="1" spans="1:42">
+      <c r="A147" s="45">
+        <v>170010</v>
+      </c>
+      <c r="B147" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="C147" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="D147" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="E147" s="2">
+        <v>394</v>
+      </c>
+      <c r="F147" s="2">
+        <v>100</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H147" s="2">
+        <v>200</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J147" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K147" s="2">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2">
+        <v>0</v>
+      </c>
+      <c r="N147" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O147" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S147" s="3">
+        <v>8</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH147" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI147" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ147" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK147" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL147" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM147" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN147" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO147" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP147" s="3"/>
+    </row>
+    <row r="148" s="2" customFormat="1" spans="1:42">
+      <c r="A148" s="45">
+        <v>170011</v>
+      </c>
+      <c r="B148" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="C148" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D148" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="E148" s="2">
+        <v>394</v>
+      </c>
+      <c r="F148" s="2">
+        <v>100</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H148" s="2">
+        <v>200</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J148" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K148" s="2">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2">
+        <v>0</v>
+      </c>
+      <c r="N148" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O148" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S148" s="3">
+        <v>8</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI148" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ148" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK148" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL148" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM148" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN148" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO148" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP148" s="3"/>
+    </row>
+    <row r="149" s="2" customFormat="1" spans="1:42">
+      <c r="A149" s="45">
+        <v>170012</v>
+      </c>
+      <c r="B149" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="C149" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D149" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="E149" s="2">
+        <v>394</v>
+      </c>
+      <c r="F149" s="2">
+        <v>100</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H149" s="2">
+        <v>200</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J149" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K149" s="2">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0</v>
+      </c>
+      <c r="N149" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O149" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S149" s="3">
+        <v>8</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI149" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ149" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK149" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL149" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM149" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN149" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO149" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP149" s="3"/>
+    </row>
+    <row r="150" s="2" customFormat="1" spans="1:42">
+      <c r="A150" s="45">
+        <v>170013</v>
+      </c>
+      <c r="B150" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C150" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D150" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="E150" s="2">
+        <v>394</v>
+      </c>
+      <c r="F150" s="2">
+        <v>100</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H150" s="2">
+        <v>200</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J150" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K150" s="2">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2">
+        <v>0</v>
+      </c>
+      <c r="N150" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O150" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S150" s="3">
+        <v>8</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI150" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ150" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK150" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL150" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM150" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN150" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO150" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP150" s="3"/>
+    </row>
+    <row r="151" s="2" customFormat="1" spans="1:42">
+      <c r="A151" s="45">
+        <v>170014</v>
+      </c>
+      <c r="B151" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="C151" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D151" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="E151" s="2">
+        <v>394</v>
+      </c>
+      <c r="F151" s="2">
+        <v>100</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H151" s="2">
+        <v>200</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J151" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K151" s="2">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0</v>
+      </c>
+      <c r="N151" s="16">
+        <v>8192</v>
+      </c>
+      <c r="O151" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S151" s="3">
+        <v>8</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI151" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ151" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK151" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL151" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM151" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN151" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO151" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP151" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20560,7 +22770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -20568,7 +22778,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -20577,7 +22787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -20585,7 +22795,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能显示表-复合/j技能显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="202"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="202"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2186,10 +2186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2265,12 +2265,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2282,26 +2286,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2309,6 +2330,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2322,19 +2351,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2347,36 +2376,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2400,14 +2408,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2475,7 +2475,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,115 +2595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2719,6 +2719,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2759,15 +2779,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2788,116 +2799,105 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2906,148 +2906,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3143,25 +3143,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3176,45 +3176,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3281,70 +3281,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3353,10 +3347,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3365,10 +3359,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3377,136 +3371,142 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3660,9 +3660,9 @@
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="常规 3 27" xfId="2"/>
-    <cellStyle name="差 2 4" xfId="3"/>
+    <cellStyle name="差 2 4" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="常规 3 27" xfId="3"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
     <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="货币" xfId="6" builtinId="4"/>
@@ -3679,21 +3679,21 @@
     <cellStyle name="百分比" xfId="17" builtinId="5"/>
     <cellStyle name="差 2 7" xfId="18"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="好 14" xfId="21"/>
-    <cellStyle name="常规 6 13" xfId="22"/>
-    <cellStyle name="常规 6" xfId="23"/>
-    <cellStyle name="差 4" xfId="24"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 7 31" xfId="26"/>
-    <cellStyle name="常规 7 26" xfId="27"/>
-    <cellStyle name="常规 6 5" xfId="28"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="29" builtinId="36"/>
-    <cellStyle name="常规 4 12" xfId="30"/>
+    <cellStyle name="差 4" xfId="20"/>
+    <cellStyle name="注释" xfId="21" builtinId="10"/>
+    <cellStyle name="好 14" xfId="22"/>
+    <cellStyle name="常规 6 13" xfId="23"/>
+    <cellStyle name="常规 6" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36"/>
+    <cellStyle name="常规 4 12" xfId="26"/>
+    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
+    <cellStyle name="常规 7 31" xfId="28"/>
+    <cellStyle name="常规 7 26" xfId="29"/>
+    <cellStyle name="常规 6 5" xfId="30"/>
     <cellStyle name="标题 4" xfId="31" builtinId="19"/>
     <cellStyle name="标题" xfId="32" builtinId="15"/>
-    <cellStyle name="常规 10 11" xfId="33"/>
-    <cellStyle name="常规 12" xfId="34"/>
+    <cellStyle name="常规 12" xfId="33"/>
+    <cellStyle name="常规 10 11" xfId="34"/>
     <cellStyle name="解释性文本" xfId="35" builtinId="53"/>
     <cellStyle name="差 6" xfId="36"/>
     <cellStyle name="标题 1" xfId="37" builtinId="16"/>
@@ -3727,13 +3727,13 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="65" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="66" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="67" builtinId="47"/>
-    <cellStyle name="常规 4 15" xfId="68"/>
-    <cellStyle name="常规 4 20" xfId="69"/>
+    <cellStyle name="常规 4 20" xfId="68"/>
+    <cellStyle name="常规 4 15" xfId="69"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="70" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="71" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="72" builtinId="51"/>
-    <cellStyle name="常规 4 16" xfId="73"/>
-    <cellStyle name="常规 4 21" xfId="74"/>
+    <cellStyle name="常规 4 21" xfId="73"/>
+    <cellStyle name="常规 4 16" xfId="74"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="75" builtinId="52"/>
     <cellStyle name="常规 10" xfId="76"/>
     <cellStyle name="差 2" xfId="77"/>
@@ -3744,27 +3744,27 @@
     <cellStyle name="差 5" xfId="82"/>
     <cellStyle name="常规 10 10" xfId="83"/>
     <cellStyle name="常规 10 12" xfId="84"/>
-    <cellStyle name="常规 10 13" xfId="85"/>
-    <cellStyle name="常规 14" xfId="86"/>
-    <cellStyle name="常规 10 14" xfId="87"/>
+    <cellStyle name="常规 14" xfId="85"/>
+    <cellStyle name="常规 10 13" xfId="86"/>
+    <cellStyle name="常规 20" xfId="87"/>
     <cellStyle name="常规 15" xfId="88"/>
-    <cellStyle name="常规 20" xfId="89"/>
-    <cellStyle name="常规 10 15" xfId="90"/>
-    <cellStyle name="常规 10 20" xfId="91"/>
-    <cellStyle name="常规 16" xfId="92"/>
-    <cellStyle name="常规 21" xfId="93"/>
-    <cellStyle name="常规 10 16" xfId="94"/>
+    <cellStyle name="常规 10 14" xfId="89"/>
+    <cellStyle name="常规 21" xfId="90"/>
+    <cellStyle name="常规 16" xfId="91"/>
+    <cellStyle name="常规 10 20" xfId="92"/>
+    <cellStyle name="常规 10 15" xfId="93"/>
+    <cellStyle name="常规 22" xfId="94"/>
     <cellStyle name="常规 10 21" xfId="95"/>
-    <cellStyle name="常规 22" xfId="96"/>
-    <cellStyle name="常规 10 17" xfId="97"/>
-    <cellStyle name="常规 10 22" xfId="98"/>
-    <cellStyle name="常规 18" xfId="99"/>
-    <cellStyle name="常规 23" xfId="100"/>
-    <cellStyle name="常规 10 18" xfId="101"/>
+    <cellStyle name="常规 10 16" xfId="96"/>
+    <cellStyle name="常规 23" xfId="97"/>
+    <cellStyle name="常规 18" xfId="98"/>
+    <cellStyle name="常规 10 22" xfId="99"/>
+    <cellStyle name="常规 10 17" xfId="100"/>
+    <cellStyle name="常规 24" xfId="101"/>
     <cellStyle name="常规 19" xfId="102"/>
-    <cellStyle name="常规 24" xfId="103"/>
-    <cellStyle name="常规 10 19" xfId="104"/>
-    <cellStyle name="常规 25" xfId="105"/>
+    <cellStyle name="常规 10 18" xfId="103"/>
+    <cellStyle name="常规 25" xfId="104"/>
+    <cellStyle name="常规 10 19" xfId="105"/>
     <cellStyle name="常规 10 2" xfId="106"/>
     <cellStyle name="常规 10 3" xfId="107"/>
     <cellStyle name="常规 10 4" xfId="108"/>
@@ -3780,33 +3780,33 @@
     <cellStyle name="常规 2 6" xfId="118"/>
     <cellStyle name="常规 2 7" xfId="119"/>
     <cellStyle name="常规 2 8" xfId="120"/>
-    <cellStyle name="常规 28" xfId="121"/>
-    <cellStyle name="常规 33" xfId="122"/>
-    <cellStyle name="常规 29" xfId="123"/>
-    <cellStyle name="常规 34" xfId="124"/>
-    <cellStyle name="常规 3 10" xfId="125"/>
-    <cellStyle name="常规 6 6" xfId="126"/>
-    <cellStyle name="常规 7 27" xfId="127"/>
-    <cellStyle name="常规 7 32" xfId="128"/>
-    <cellStyle name="常规 3 11" xfId="129"/>
-    <cellStyle name="常规 6 7" xfId="130"/>
-    <cellStyle name="常规 7 28" xfId="131"/>
-    <cellStyle name="常规 7 33" xfId="132"/>
-    <cellStyle name="常规 3 12" xfId="133"/>
+    <cellStyle name="常规 33" xfId="121"/>
+    <cellStyle name="常规 28" xfId="122"/>
+    <cellStyle name="常规 34" xfId="123"/>
+    <cellStyle name="常规 29" xfId="124"/>
+    <cellStyle name="常规 7 32" xfId="125"/>
+    <cellStyle name="常规 7 27" xfId="126"/>
+    <cellStyle name="常规 6 6" xfId="127"/>
+    <cellStyle name="常规 3 10" xfId="128"/>
+    <cellStyle name="常规 7 33" xfId="129"/>
+    <cellStyle name="常规 7 28" xfId="130"/>
+    <cellStyle name="常规 6 7" xfId="131"/>
+    <cellStyle name="常规 3 11" xfId="132"/>
+    <cellStyle name="常规 7 29" xfId="133"/>
     <cellStyle name="常规 6 8" xfId="134"/>
-    <cellStyle name="常规 7 29" xfId="135"/>
-    <cellStyle name="常规 3 13" xfId="136"/>
-    <cellStyle name="常规 6 9" xfId="137"/>
-    <cellStyle name="常规 3 15" xfId="138"/>
-    <cellStyle name="常规 3 20" xfId="139"/>
-    <cellStyle name="常规 3 16" xfId="140"/>
-    <cellStyle name="常规 3 21" xfId="141"/>
-    <cellStyle name="常规 3 17" xfId="142"/>
-    <cellStyle name="常规 3 22" xfId="143"/>
-    <cellStyle name="常规 3 18" xfId="144"/>
-    <cellStyle name="常规 3 23" xfId="145"/>
-    <cellStyle name="常规 3 19" xfId="146"/>
-    <cellStyle name="常规 3 24" xfId="147"/>
+    <cellStyle name="常规 3 12" xfId="135"/>
+    <cellStyle name="常规 6 9" xfId="136"/>
+    <cellStyle name="常规 3 13" xfId="137"/>
+    <cellStyle name="常规 3 20" xfId="138"/>
+    <cellStyle name="常规 3 15" xfId="139"/>
+    <cellStyle name="常规 3 21" xfId="140"/>
+    <cellStyle name="常规 3 16" xfId="141"/>
+    <cellStyle name="常规 3 22" xfId="142"/>
+    <cellStyle name="常规 3 17" xfId="143"/>
+    <cellStyle name="常规 3 23" xfId="144"/>
+    <cellStyle name="常规 3 18" xfId="145"/>
+    <cellStyle name="常规 3 24" xfId="146"/>
+    <cellStyle name="常规 3 19" xfId="147"/>
     <cellStyle name="常规 3 2" xfId="148"/>
     <cellStyle name="常规 3 25" xfId="149"/>
     <cellStyle name="常规 3 26" xfId="150"/>
@@ -3820,8 +3820,8 @@
     <cellStyle name="常规 35" xfId="158"/>
     <cellStyle name="常规 36" xfId="159"/>
     <cellStyle name="常规 4 10" xfId="160"/>
-    <cellStyle name="常规 4 17" xfId="161"/>
-    <cellStyle name="常规 4 22" xfId="162"/>
+    <cellStyle name="常规 4 22" xfId="161"/>
+    <cellStyle name="常规 4 17" xfId="162"/>
     <cellStyle name="常规 4 18" xfId="163"/>
     <cellStyle name="常规 4 19" xfId="164"/>
     <cellStyle name="常规 4 2" xfId="165"/>
@@ -3832,62 +3832,62 @@
     <cellStyle name="常规 4 7" xfId="170"/>
     <cellStyle name="常规 4 8" xfId="171"/>
     <cellStyle name="常规 4 9" xfId="172"/>
-    <cellStyle name="常规 5" xfId="173"/>
+    <cellStyle name="好 13" xfId="173"/>
     <cellStyle name="常规 6 12" xfId="174"/>
-    <cellStyle name="好 13" xfId="175"/>
-    <cellStyle name="常规 6 10" xfId="176"/>
-    <cellStyle name="好 11" xfId="177"/>
-    <cellStyle name="常规 6 11" xfId="178"/>
-    <cellStyle name="好 12" xfId="179"/>
-    <cellStyle name="常规 6 14" xfId="180"/>
-    <cellStyle name="常规 7" xfId="181"/>
-    <cellStyle name="好 15" xfId="182"/>
-    <cellStyle name="好 20" xfId="183"/>
-    <cellStyle name="常规 6 15" xfId="184"/>
-    <cellStyle name="常规 6 20" xfId="185"/>
-    <cellStyle name="好 16" xfId="186"/>
-    <cellStyle name="好 21" xfId="187"/>
-    <cellStyle name="常规 6 16" xfId="188"/>
-    <cellStyle name="常规 6 21" xfId="189"/>
-    <cellStyle name="好 17" xfId="190"/>
-    <cellStyle name="好 22" xfId="191"/>
-    <cellStyle name="常规 6 17" xfId="192"/>
+    <cellStyle name="常规 5" xfId="175"/>
+    <cellStyle name="好 11" xfId="176"/>
+    <cellStyle name="常规 6 10" xfId="177"/>
+    <cellStyle name="好 12" xfId="178"/>
+    <cellStyle name="常规 6 11" xfId="179"/>
+    <cellStyle name="好 20" xfId="180"/>
+    <cellStyle name="好 15" xfId="181"/>
+    <cellStyle name="常规 7" xfId="182"/>
+    <cellStyle name="常规 6 14" xfId="183"/>
+    <cellStyle name="好 21" xfId="184"/>
+    <cellStyle name="好 16" xfId="185"/>
+    <cellStyle name="常规 6 20" xfId="186"/>
+    <cellStyle name="常规 6 15" xfId="187"/>
+    <cellStyle name="好 22" xfId="188"/>
+    <cellStyle name="好 17" xfId="189"/>
+    <cellStyle name="常规 6 21" xfId="190"/>
+    <cellStyle name="常规 6 16" xfId="191"/>
+    <cellStyle name="好 18" xfId="192"/>
     <cellStyle name="常规 6 22" xfId="193"/>
-    <cellStyle name="好 18" xfId="194"/>
-    <cellStyle name="常规 6 18" xfId="195"/>
+    <cellStyle name="常规 6 17" xfId="194"/>
+    <cellStyle name="好 19" xfId="195"/>
     <cellStyle name="常规 6 23" xfId="196"/>
-    <cellStyle name="好 19" xfId="197"/>
-    <cellStyle name="常规 6 19" xfId="198"/>
-    <cellStyle name="常规 6 24" xfId="199"/>
-    <cellStyle name="常规 6 2" xfId="200"/>
+    <cellStyle name="常规 6 18" xfId="197"/>
+    <cellStyle name="常规 6 24" xfId="198"/>
+    <cellStyle name="常规 6 19" xfId="199"/>
+    <cellStyle name="常规 7 23" xfId="200"/>
     <cellStyle name="常规 7 18" xfId="201"/>
-    <cellStyle name="常规 7 23" xfId="202"/>
-    <cellStyle name="常规 6 25" xfId="203"/>
-    <cellStyle name="常规 6 30" xfId="204"/>
-    <cellStyle name="常规 6 26" xfId="205"/>
-    <cellStyle name="常规 6 31" xfId="206"/>
-    <cellStyle name="常规 6 27" xfId="207"/>
-    <cellStyle name="常规 6 32" xfId="208"/>
-    <cellStyle name="常规 6 28" xfId="209"/>
-    <cellStyle name="常规 6 33" xfId="210"/>
+    <cellStyle name="常规 6 2" xfId="202"/>
+    <cellStyle name="常规 6 30" xfId="203"/>
+    <cellStyle name="常规 6 25" xfId="204"/>
+    <cellStyle name="常规 6 31" xfId="205"/>
+    <cellStyle name="常规 6 26" xfId="206"/>
+    <cellStyle name="常规 6 32" xfId="207"/>
+    <cellStyle name="常规 6 27" xfId="208"/>
+    <cellStyle name="常规 6 33" xfId="209"/>
+    <cellStyle name="常规 6 28" xfId="210"/>
     <cellStyle name="常规 6 29" xfId="211"/>
-    <cellStyle name="常规 6 3" xfId="212"/>
+    <cellStyle name="常规 7 24" xfId="212"/>
     <cellStyle name="常规 7 19" xfId="213"/>
-    <cellStyle name="常规 7 24" xfId="214"/>
-    <cellStyle name="常规 6 4" xfId="215"/>
+    <cellStyle name="常规 6 3" xfId="214"/>
+    <cellStyle name="常规 7 30" xfId="215"/>
     <cellStyle name="常规 7 25" xfId="216"/>
-    <cellStyle name="常规 7 30" xfId="217"/>
+    <cellStyle name="常规 6 4" xfId="217"/>
     <cellStyle name="常规 7 10" xfId="218"/>
     <cellStyle name="常规 7 11" xfId="219"/>
     <cellStyle name="常规 7 12" xfId="220"/>
     <cellStyle name="常规 7 13" xfId="221"/>
     <cellStyle name="常规 7 14" xfId="222"/>
-    <cellStyle name="常规 7 15" xfId="223"/>
-    <cellStyle name="常规 7 20" xfId="224"/>
-    <cellStyle name="常规 7 16" xfId="225"/>
-    <cellStyle name="常规 7 21" xfId="226"/>
-    <cellStyle name="常规 7 17" xfId="227"/>
-    <cellStyle name="常规 7 22" xfId="228"/>
+    <cellStyle name="常规 7 20" xfId="223"/>
+    <cellStyle name="常规 7 15" xfId="224"/>
+    <cellStyle name="常规 7 21" xfId="225"/>
+    <cellStyle name="常规 7 16" xfId="226"/>
+    <cellStyle name="常规 7 22" xfId="227"/>
+    <cellStyle name="常规 7 17" xfId="228"/>
     <cellStyle name="常规 7 2" xfId="229"/>
     <cellStyle name="常规 7 4" xfId="230"/>
     <cellStyle name="常规 7 5" xfId="231"/>
@@ -4246,11 +4246,11 @@
   <dimension ref="A1:AP151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="$A57:$XFD57"/>
+      <selection pane="bottomRight" activeCell="A136" sqref="$A136:$XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
